--- a/data/Downscaleddata/pdfs/surface o2_pdf.xlsx
+++ b/data/Downscaleddata/pdfs/surface o2_pdf.xlsx
@@ -499,25 +499,25 @@
         <v>4.959402184148225</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F2" t="n">
         <v>4.959402184148225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002916507993008325</v>
+        <v>0.0002916507993008341</v>
       </c>
       <c r="H2" t="n">
         <v>4.813156836379726</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J2" t="n">
         <v>4.813156836379726</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002778665915316458</v>
+        <v>0.0002778665915316451</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.827055324109716</v>
+        <v>4.827051500565505</v>
       </c>
       <c r="C3" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D3" t="n">
-        <v>4.973011280276886</v>
+        <v>4.972906439876827</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F3" t="n">
-        <v>4.973011280276886</v>
+        <v>4.972906439876827</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000307663673681035</v>
+        <v>0.0003075082563762518</v>
       </c>
       <c r="H3" t="n">
-        <v>4.827055324109716</v>
+        <v>4.827051500565505</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J3" t="n">
-        <v>4.827055324109716</v>
+        <v>4.827051500565505</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002897283924382885</v>
+        <v>0.0002897240769916707</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.840953811839706</v>
+        <v>4.840946164751283</v>
       </c>
       <c r="C4" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D4" t="n">
-        <v>4.986620376405546</v>
+        <v>4.986410695605429</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F4" t="n">
-        <v>4.986620376405546</v>
+        <v>4.986410695605429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003302329430331138</v>
+        <v>0.0003298227283170245</v>
       </c>
       <c r="H4" t="n">
-        <v>4.840953811839706</v>
+        <v>4.840946164751283</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J4" t="n">
-        <v>4.840953811839706</v>
+        <v>4.840946164751283</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000306604954170894</v>
+        <v>0.0003065864780351536</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.854852299569695</v>
+        <v>4.854840828937061</v>
       </c>
       <c r="C5" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D5" t="n">
-        <v>5.000229472534206</v>
+        <v>4.999914951334031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F5" t="n">
-        <v>5.000229472534206</v>
+        <v>4.999914951334031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003613115212107662</v>
+        <v>0.000360511371157352</v>
       </c>
       <c r="H5" t="n">
-        <v>4.854852299569695</v>
+        <v>4.854840828937061</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J5" t="n">
-        <v>4.854852299569695</v>
+        <v>4.854840828937061</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003417649437075777</v>
+        <v>0.0003417284022194834</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.868750787299684</v>
+        <v>4.868735493122839</v>
       </c>
       <c r="C6" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D6" t="n">
-        <v>5.013838568662867</v>
+        <v>5.013419207062633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F6" t="n">
-        <v>5.013838568662867</v>
+        <v>5.013419207062633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004031627326275843</v>
+        <v>0.0004017958739099368</v>
       </c>
       <c r="H6" t="n">
-        <v>4.868750787299684</v>
+        <v>4.868735493122839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J6" t="n">
-        <v>4.868750787299684</v>
+        <v>4.868735493122839</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000389061296322848</v>
+        <v>0.0003889976501531004</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.882649275029674</v>
+        <v>4.882630157308618</v>
       </c>
       <c r="C7" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D7" t="n">
-        <v>5.027447664791526</v>
+        <v>5.026923462791235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F7" t="n">
-        <v>5.027447664791526</v>
+        <v>5.026923462791235</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004598650513153286</v>
+        <v>0.0004571839346326776</v>
       </c>
       <c r="H7" t="n">
-        <v>4.882649275029674</v>
+        <v>4.882630157308618</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J7" t="n">
-        <v>4.882649275029674</v>
+        <v>4.882630157308618</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004519815694296028</v>
+        <v>0.0004518785870457037</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.896547762759664</v>
+        <v>4.896524821494396</v>
       </c>
       <c r="C8" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D8" t="n">
-        <v>5.041056760920187</v>
+        <v>5.040427718519837</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F8" t="n">
-        <v>5.041056760920187</v>
+        <v>5.040427718519837</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005341526654459714</v>
+        <v>0.0005302128617862049</v>
       </c>
       <c r="H8" t="n">
-        <v>4.896547762759664</v>
+        <v>4.896524821494396</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J8" t="n">
-        <v>4.896547762759664</v>
+        <v>4.896524821494396</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0005347903983868289</v>
+        <v>0.0005346318602419956</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.910446250489654</v>
+        <v>4.910419485680175</v>
       </c>
       <c r="C9" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D9" t="n">
-        <v>5.054665857048847</v>
+        <v>5.053931974248439</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F9" t="n">
-        <v>5.054665857048847</v>
+        <v>5.053931974248439</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000627907287416283</v>
+        <v>0.0006223640437755534</v>
       </c>
       <c r="H9" t="n">
-        <v>4.910446250489654</v>
+        <v>4.910419485680175</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J9" t="n">
-        <v>4.910446250489654</v>
+        <v>4.910419485680175</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0006426411392842163</v>
+        <v>0.0006424059267804808</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.924344738219643</v>
+        <v>4.924314149865953</v>
       </c>
       <c r="C10" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D10" t="n">
-        <v>5.068274953177507</v>
+        <v>5.067436229977041</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F10" t="n">
-        <v>5.068274953177507</v>
+        <v>5.067436229977041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0007436365478996383</v>
+        <v>0.000736112996891702</v>
       </c>
       <c r="H10" t="n">
-        <v>4.924344738219643</v>
+        <v>4.924314149865953</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J10" t="n">
-        <v>4.924344738219643</v>
+        <v>4.924314149865953</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0007816897910709781</v>
+        <v>0.0007813508615030196</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.938243225949633</v>
+        <v>4.938208814051732</v>
       </c>
       <c r="C11" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D11" t="n">
-        <v>5.081884049306168</v>
+        <v>5.080940485705643</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F11" t="n">
-        <v>5.081884049306168</v>
+        <v>5.080940485705643</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0008843336677829785</v>
+        <v>0.0008735258026179617</v>
       </c>
       <c r="H11" t="n">
-        <v>4.938243225949633</v>
+        <v>4.938208814051732</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J11" t="n">
-        <v>4.938243225949633</v>
+        <v>4.938208814051732</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000960805359272698</v>
+        <v>0.0009602804843300892</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.952141713679623</v>
+        <v>4.95210347823751</v>
       </c>
       <c r="C12" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D12" t="n">
-        <v>5.095493145434828</v>
+        <v>5.094444741434245</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F12" t="n">
-        <v>5.095493145434828</v>
+        <v>5.094444741434245</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001053706066199983</v>
+        <v>0.001039350945251488</v>
       </c>
       <c r="H12" t="n">
-        <v>4.952141713679623</v>
+        <v>4.95210347823751</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J12" t="n">
-        <v>4.952141713679623</v>
+        <v>4.95210347823751</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00118861450636422</v>
+        <v>0.001187893071906254</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.966040201409613</v>
+        <v>4.965998142423289</v>
       </c>
       <c r="C13" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D13" t="n">
-        <v>5.109102241563488</v>
+        <v>5.107948997162847</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F13" t="n">
-        <v>5.109102241563488</v>
+        <v>5.107948997162847</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001249005359991819</v>
+        <v>0.001231378359061934</v>
       </c>
       <c r="H13" t="n">
-        <v>4.966040201409613</v>
+        <v>4.965998142423289</v>
       </c>
       <c r="I13" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J13" t="n">
-        <v>4.966040201409613</v>
+        <v>4.965998142423289</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001474447132923796</v>
+        <v>0.001473473105156172</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.979938689139603</v>
+        <v>4.979892806609067</v>
       </c>
       <c r="C14" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D14" t="n">
-        <v>5.122711337692149</v>
+        <v>5.121453252891449</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F14" t="n">
-        <v>5.122711337692149</v>
+        <v>5.121453252891449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001473589326528771</v>
+        <v>0.001449589671879819</v>
       </c>
       <c r="H14" t="n">
-        <v>4.979938689139603</v>
+        <v>4.979892806609067</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J14" t="n">
-        <v>4.979938689139603</v>
+        <v>4.979892806609067</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001829811837649351</v>
+        <v>0.001828517517338308</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.993837176869592</v>
+        <v>4.993787470794846</v>
       </c>
       <c r="C15" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D15" t="n">
-        <v>5.136320433820808</v>
+        <v>5.13495750862005</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F15" t="n">
-        <v>5.136320433820808</v>
+        <v>5.13495750862005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001751487778320333</v>
+        <v>0.00172260548447671</v>
       </c>
       <c r="H15" t="n">
-        <v>4.993837176869592</v>
+        <v>4.993787470794846</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J15" t="n">
-        <v>4.993837176869592</v>
+        <v>4.993787470794846</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002267748717749295</v>
+        <v>0.00226605324643492</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.007735664599582</v>
+        <v>5.007682134980624</v>
       </c>
       <c r="C16" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D16" t="n">
-        <v>5.149929529949469</v>
+        <v>5.148461764348652</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F16" t="n">
-        <v>5.149929529949469</v>
+        <v>5.148461764348652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002076373482186698</v>
+        <v>0.002038184398718493</v>
       </c>
       <c r="H16" t="n">
-        <v>5.007735664599582</v>
+        <v>5.007682134980624</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J16" t="n">
-        <v>5.007735664599582</v>
+        <v>5.007682134980624</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002802895200565373</v>
+        <v>0.002800703038597809</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.021634152329572</v>
+        <v>5.021576799166403</v>
       </c>
       <c r="C17" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D17" t="n">
-        <v>5.163538626078129</v>
+        <v>5.161966020077254</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F17" t="n">
-        <v>5.163538626078129</v>
+        <v>5.161966020077254</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002451219734883284</v>
+        <v>0.002406379021913612</v>
       </c>
       <c r="H17" t="n">
-        <v>5.021634152329572</v>
+        <v>5.021576799166403</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J17" t="n">
-        <v>5.021634152329572</v>
+        <v>5.021576799166403</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003477834816725102</v>
+        <v>0.003474892827883585</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.035532640059562</v>
+        <v>5.035471463352181</v>
       </c>
       <c r="C18" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D18" t="n">
-        <v>5.177147722206789</v>
+        <v>5.175470275805856</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F18" t="n">
-        <v>5.177147722206789</v>
+        <v>5.175470275805856</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002884408722116481</v>
+        <v>0.002824764390978722</v>
       </c>
       <c r="H18" t="n">
-        <v>5.035532640059562</v>
+        <v>5.035471463352181</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J18" t="n">
-        <v>5.035532640059562</v>
+        <v>5.035471463352181</v>
       </c>
       <c r="K18" t="n">
-        <v>0.004313779503931272</v>
+        <v>0.004309662578775938</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.049431127789552</v>
+        <v>5.04936612753796</v>
       </c>
       <c r="C19" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D19" t="n">
-        <v>5.19075681833545</v>
+        <v>5.188974531534458</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F19" t="n">
-        <v>5.19075681833545</v>
+        <v>5.188974531534458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00340007123686877</v>
+        <v>0.003327869544256692</v>
       </c>
       <c r="H19" t="n">
-        <v>5.049431127789552</v>
+        <v>5.04936612753796</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J19" t="n">
-        <v>5.049431127789552</v>
+        <v>5.04936612753796</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00532487292249221</v>
+        <v>0.005319699021049076</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.063329615519541</v>
+        <v>5.063260791723738</v>
       </c>
       <c r="C20" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D20" t="n">
-        <v>5.20436591446411</v>
+        <v>5.20247878726306</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F20" t="n">
-        <v>5.20436591446411</v>
+        <v>5.20247878726306</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003994752278679989</v>
+        <v>0.003908146250282728</v>
       </c>
       <c r="H20" t="n">
-        <v>5.063329615519541</v>
+        <v>5.063260791723738</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J20" t="n">
-        <v>5.063329615519541</v>
+        <v>5.063260791723738</v>
       </c>
       <c r="K20" t="n">
-        <v>0.006536974835540233</v>
+        <v>0.006530532395853145</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.077228103249531</v>
+        <v>5.077155455909517</v>
       </c>
       <c r="C21" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D21" t="n">
-        <v>5.21797501059277</v>
+        <v>5.215983042991662</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F21" t="n">
-        <v>5.21797501059277</v>
+        <v>5.215983042991662</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00470802970172053</v>
+        <v>0.00459550574738279</v>
       </c>
       <c r="H21" t="n">
-        <v>5.077228103249531</v>
+        <v>5.077155455909517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J21" t="n">
-        <v>5.077228103249531</v>
+        <v>5.077155455909517</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007980887480848773</v>
+        <v>0.007972748630307792</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.09112659097952</v>
+        <v>5.091050120095295</v>
       </c>
       <c r="C22" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D22" t="n">
-        <v>5.231584106721431</v>
+        <v>5.229487298720264</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F22" t="n">
-        <v>5.231584106721431</v>
+        <v>5.229487298720264</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00557290782334948</v>
+        <v>0.005428880047541439</v>
       </c>
       <c r="H22" t="n">
-        <v>5.09112659097952</v>
+        <v>5.091050120095295</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J22" t="n">
-        <v>5.09112659097952</v>
+        <v>5.091050120095295</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009697658178537448</v>
+        <v>0.009687688787574113</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.10502507870951</v>
+        <v>5.104944784281074</v>
       </c>
       <c r="C23" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D23" t="n">
-        <v>5.245193202850091</v>
+        <v>5.242991554448866</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F23" t="n">
-        <v>5.245193202850091</v>
+        <v>5.242991554448866</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006619766433723106</v>
+        <v>0.006434964297796798</v>
       </c>
       <c r="H23" t="n">
-        <v>5.10502507870951</v>
+        <v>5.104944784281074</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J23" t="n">
-        <v>5.10502507870951</v>
+        <v>5.104944784281074</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01174955169642713</v>
+        <v>0.01173716916731469</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.1189235664395</v>
+        <v>5.118839448466852</v>
       </c>
       <c r="C24" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D24" t="n">
-        <v>5.25880229897875</v>
+        <v>5.256495810177468</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F24" t="n">
-        <v>5.25880229897875</v>
+        <v>5.256495810177468</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007894877616472987</v>
+        <v>0.007659672415864478</v>
       </c>
       <c r="H24" t="n">
-        <v>5.1189235664395</v>
+        <v>5.118839448466852</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1189235664395</v>
+        <v>5.118839448466852</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01417236178781013</v>
+        <v>0.01415730529325783</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.132822054169489</v>
+        <v>5.13273411265263</v>
       </c>
       <c r="C25" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D25" t="n">
-        <v>5.272411395107411</v>
+        <v>5.27000006590607</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F25" t="n">
-        <v>5.272411395107411</v>
+        <v>5.27000006590607</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009459908052807763</v>
+        <v>0.00915785359078165</v>
       </c>
       <c r="H25" t="n">
-        <v>5.132822054169489</v>
+        <v>5.13273411265263</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J25" t="n">
-        <v>5.132822054169489</v>
+        <v>5.13273411265263</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01703746841882653</v>
+        <v>0.01701771191597254</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.146720541899479</v>
+        <v>5.146628776838409</v>
       </c>
       <c r="C26" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D26" t="n">
-        <v>5.286020491236071</v>
+        <v>5.283504321634672</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F26" t="n">
-        <v>5.286020491236071</v>
+        <v>5.283504321634672</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01137769664318798</v>
+        <v>0.01099401195640638</v>
       </c>
       <c r="H26" t="n">
-        <v>5.146720541899479</v>
+        <v>5.146628776838409</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J26" t="n">
-        <v>5.146720541899479</v>
+        <v>5.146628776838409</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02038805088853811</v>
+        <v>0.02036351055484359</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.160619029629469</v>
+        <v>5.160523441024187</v>
       </c>
       <c r="C27" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D27" t="n">
-        <v>5.299629587364731</v>
+        <v>5.297008577363274</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F27" t="n">
-        <v>5.299629587364731</v>
+        <v>5.297008577363274</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01372116173628696</v>
+        <v>0.01323263022311298</v>
       </c>
       <c r="H27" t="n">
-        <v>5.160619029629469</v>
+        <v>5.160523441024187</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J27" t="n">
-        <v>5.160619029629469</v>
+        <v>5.160523441024187</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0242757234683286</v>
+        <v>0.02424648630700827</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.174517517359459</v>
+        <v>5.174418105209966</v>
       </c>
       <c r="C28" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D28" t="n">
-        <v>5.313238683493392</v>
+        <v>5.310512833091876</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F28" t="n">
-        <v>5.313238683493392</v>
+        <v>5.310512833091876</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01656748190971103</v>
+        <v>0.0159540286441</v>
       </c>
       <c r="H28" t="n">
-        <v>5.174517517359459</v>
+        <v>5.174418105209966</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J28" t="n">
-        <v>5.174517517359459</v>
+        <v>5.174418105209966</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02874946491330434</v>
+        <v>0.02871513099719375</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.188416005089449</v>
+        <v>5.188312769395744</v>
       </c>
       <c r="C29" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D29" t="n">
-        <v>5.326847779622052</v>
+        <v>5.324017088820479</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F29" t="n">
-        <v>5.326847779622052</v>
+        <v>5.324017088820479</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02000056073034835</v>
+        <v>0.01923343757597741</v>
       </c>
       <c r="H29" t="n">
-        <v>5.188416005089449</v>
+        <v>5.188312769395744</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J29" t="n">
-        <v>5.188416005089449</v>
+        <v>5.188312769395744</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03389622050779404</v>
+        <v>0.03385479540297675</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.202314492819438</v>
+        <v>5.202207433581523</v>
       </c>
       <c r="C30" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D30" t="n">
-        <v>5.340456875750712</v>
+        <v>5.337521344549081</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F30" t="n">
-        <v>5.340456875750712</v>
+        <v>5.337521344549081</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02410240339249383</v>
+        <v>0.02315579266721625</v>
       </c>
       <c r="H30" t="n">
-        <v>5.202314492819438</v>
+        <v>5.202207433581523</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J30" t="n">
-        <v>5.202314492819438</v>
+        <v>5.202207433581523</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03976712755635235</v>
+        <v>0.03971923040434222</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.216212980549428</v>
+        <v>5.216102097767301</v>
       </c>
       <c r="C31" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D31" t="n">
-        <v>5.354065971879373</v>
+        <v>5.351025600277683</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F31" t="n">
-        <v>5.354065971879373</v>
+        <v>5.351025600277683</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02895900739935916</v>
+        <v>0.02780755655850756</v>
       </c>
       <c r="H31" t="n">
-        <v>5.216212980549428</v>
+        <v>5.216102097767301</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J31" t="n">
-        <v>5.216212980549428</v>
+        <v>5.216102097767301</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04644227275464507</v>
+        <v>0.04638454280488902</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.230111468279418</v>
+        <v>5.22999676195308</v>
       </c>
       <c r="C32" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D32" t="n">
-        <v>5.367675068008033</v>
+        <v>5.364529856006285</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F32" t="n">
-        <v>5.367675068008033</v>
+        <v>5.364529856006285</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03465641542261029</v>
+        <v>0.03326545329363313</v>
       </c>
       <c r="H32" t="n">
-        <v>5.230111468279418</v>
+        <v>5.22999676195308</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J32" t="n">
-        <v>5.230111468279418</v>
+        <v>5.22999676195308</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05397610275085377</v>
+        <v>0.05391019622449893</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.244009956009408</v>
+        <v>5.243891426138858</v>
       </c>
       <c r="C33" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D33" t="n">
-        <v>5.381284164136693</v>
+        <v>5.378034111734887</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F33" t="n">
-        <v>5.381284164136693</v>
+        <v>5.378034111734887</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04130111637184478</v>
+        <v>0.03962165991945745</v>
       </c>
       <c r="H33" t="n">
-        <v>5.244009956009408</v>
+        <v>5.243891426138858</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J33" t="n">
-        <v>5.244009956009408</v>
+        <v>5.243891426138858</v>
       </c>
       <c r="K33" t="n">
-        <v>0.06246634885945893</v>
+        <v>0.06238894429074261</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.257908443739398</v>
+        <v>5.257786090324637</v>
       </c>
       <c r="C34" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D34" t="n">
-        <v>5.394893260265353</v>
+        <v>5.391538367463489</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F34" t="n">
-        <v>5.394893260265353</v>
+        <v>5.391538367463489</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04899438188128143</v>
+        <v>0.04697588027129779</v>
       </c>
       <c r="H34" t="n">
-        <v>5.257908443739398</v>
+        <v>5.257786090324637</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J34" t="n">
-        <v>5.257908443739398</v>
+        <v>5.257786090324637</v>
       </c>
       <c r="K34" t="n">
-        <v>0.07191237606225735</v>
+        <v>0.07182334786520277</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.271806931469388</v>
+        <v>5.271680754510415</v>
       </c>
       <c r="C35" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D35" t="n">
-        <v>5.408502356394013</v>
+        <v>5.405042623192091</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F35" t="n">
-        <v>5.408502356394013</v>
+        <v>5.405042623192091</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05776560864680341</v>
+        <v>0.05544332948062242</v>
       </c>
       <c r="H35" t="n">
-        <v>5.271806931469388</v>
+        <v>5.271680754510415</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J35" t="n">
-        <v>5.271806931469388</v>
+        <v>5.271680754510415</v>
       </c>
       <c r="K35" t="n">
-        <v>0.08241990256742728</v>
+        <v>0.08232009853396892</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.285705419199377</v>
+        <v>5.285575418696194</v>
       </c>
       <c r="C36" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D36" t="n">
-        <v>5.422111452522674</v>
+        <v>5.418546878920693</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F36" t="n">
-        <v>5.422111452522674</v>
+        <v>5.418546878920693</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06775188990412413</v>
+        <v>0.06504646032033934</v>
       </c>
       <c r="H36" t="n">
-        <v>5.285705419199377</v>
+        <v>5.285575418696194</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J36" t="n">
-        <v>5.285705419199377</v>
+        <v>5.285575418696194</v>
       </c>
       <c r="K36" t="n">
-        <v>0.09396401663460206</v>
+        <v>0.09385047288420306</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.299603906929367</v>
+        <v>5.299470082881972</v>
       </c>
       <c r="C37" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D37" t="n">
-        <v>5.435720548651334</v>
+        <v>5.432051134649295</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F37" t="n">
-        <v>5.435720548651334</v>
+        <v>5.432051134649295</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07911739787244626</v>
+        <v>0.07587826386655902</v>
       </c>
       <c r="H37" t="n">
-        <v>5.299603906929367</v>
+        <v>5.299470082881972</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J37" t="n">
-        <v>5.299603906929367</v>
+        <v>5.299470082881972</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1066809375497233</v>
+        <v>0.1065534501101754</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.313502394659356</v>
+        <v>5.313364747067751</v>
       </c>
       <c r="C38" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D38" t="n">
-        <v>5.449329644779994</v>
+        <v>5.445555390377896</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F38" t="n">
-        <v>5.449329644779994</v>
+        <v>5.445555390377896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09186591776145005</v>
+        <v>0.08815473777941148</v>
       </c>
       <c r="H38" t="n">
-        <v>5.313502394659356</v>
+        <v>5.313364747067751</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J38" t="n">
-        <v>5.313502394659356</v>
+        <v>5.313364747067751</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1205355661464</v>
+        <v>0.1203907519238624</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.327400882389346</v>
+        <v>5.327259411253529</v>
       </c>
       <c r="C39" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D39" t="n">
-        <v>5.462938740908655</v>
+        <v>5.459059646106498</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F39" t="n">
-        <v>5.462938740908655</v>
+        <v>5.459059646106498</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1060424904812254</v>
+        <v>0.1018799356528489</v>
       </c>
       <c r="H39" t="n">
-        <v>5.327400882389346</v>
+        <v>5.327259411253529</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J39" t="n">
-        <v>5.327400882389346</v>
+        <v>5.327259411253529</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1355770372768893</v>
+        <v>0.1354188879340786</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.341299370119336</v>
+        <v>5.341154075439308</v>
       </c>
       <c r="C40" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D40" t="n">
-        <v>5.476547837037315</v>
+        <v>5.4725639018351</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F40" t="n">
-        <v>5.476547837037315</v>
+        <v>5.4725639018351</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1217948562506349</v>
+        <v>0.1170580774291021</v>
       </c>
       <c r="H40" t="n">
-        <v>5.341299370119336</v>
+        <v>5.341154075439308</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J40" t="n">
-        <v>5.341299370119336</v>
+        <v>5.341154075439308</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1517343070966439</v>
+        <v>0.1515593874938561</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.355197857849325</v>
+        <v>5.355048739625086</v>
       </c>
       <c r="C41" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D41" t="n">
-        <v>5.490156933165975</v>
+        <v>5.486068157563702</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F41" t="n">
-        <v>5.490156933165975</v>
+        <v>5.486068157563702</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1392044545475018</v>
+        <v>0.1337412526303164</v>
       </c>
       <c r="H41" t="n">
-        <v>5.355197857849325</v>
+        <v>5.355048739625086</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J41" t="n">
-        <v>5.355197857849325</v>
+        <v>5.355048739625086</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1690856314839588</v>
+        <v>0.1688937922226135</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.369096345579315</v>
+        <v>5.368943403810865</v>
       </c>
       <c r="C42" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D42" t="n">
-        <v>5.503766029294635</v>
+        <v>5.499572413292304</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F42" t="n">
-        <v>5.503766029294635</v>
+        <v>5.499572413292304</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1581515566040671</v>
+        <v>0.1521323332904339</v>
       </c>
       <c r="H42" t="n">
-        <v>5.369096345579315</v>
+        <v>5.368943403810865</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J42" t="n">
-        <v>5.369096345579315</v>
+        <v>5.368943403810865</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1875287370937214</v>
+        <v>0.1873194629337093</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.382994833309305</v>
+        <v>5.382838067996643</v>
       </c>
       <c r="C43" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D43" t="n">
-        <v>5.517375125423295</v>
+        <v>5.513076669020906</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F43" t="n">
-        <v>5.517375125423295</v>
+        <v>5.513076669020906</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1786359773390757</v>
+        <v>0.1720311373867956</v>
       </c>
       <c r="H43" t="n">
-        <v>5.382994833309305</v>
+        <v>5.382838067996643</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J43" t="n">
-        <v>5.382994833309305</v>
+        <v>5.382838067996643</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2070436828678992</v>
+        <v>0.2068193189422552</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.396893321039295</v>
+        <v>5.396732732182421</v>
       </c>
       <c r="C44" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D44" t="n">
-        <v>5.530984221551956</v>
+        <v>5.526580924749508</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0003763386653173205</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F44" t="n">
-        <v>5.530984221551956</v>
+        <v>5.526580924749508</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2007089205457845</v>
+        <v>0.1934074281694118</v>
       </c>
       <c r="H44" t="n">
-        <v>5.396893321039295</v>
+        <v>5.396732732182421</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J44" t="n">
-        <v>5.396893321039295</v>
+        <v>5.396732732182421</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2275981134644515</v>
+        <v>0.2273529038821288</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.410791808769285</v>
+        <v>5.4106273963682</v>
       </c>
       <c r="C45" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D45" t="n">
-        <v>5.544593317680616</v>
+        <v>5.54008518047811</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0003960050618224649</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F45" t="n">
-        <v>5.544593317680616</v>
+        <v>5.54008518047811</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2242000833477534</v>
+        <v>0.2162483908574067</v>
       </c>
       <c r="H45" t="n">
-        <v>5.410791808769285</v>
+        <v>5.4106273963682</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J45" t="n">
-        <v>5.410791808769285</v>
+        <v>5.4106273963682</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2491812459528982</v>
+        <v>0.2489213355502811</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.424690296499274</v>
+        <v>5.424522060553978</v>
       </c>
       <c r="C46" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D46" t="n">
-        <v>5.558202413809276</v>
+        <v>5.553589436206712</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00044625128841778</v>
+        <v>0.0002338723343861524</v>
       </c>
       <c r="F46" t="n">
-        <v>5.558202413809276</v>
+        <v>5.553589436206712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2489360080923952</v>
+        <v>0.2404364460292988</v>
       </c>
       <c r="H46" t="n">
-        <v>5.424690296499274</v>
+        <v>5.424522060553978</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J46" t="n">
-        <v>5.424690296499274</v>
+        <v>5.424522060553978</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2717137046966693</v>
+        <v>0.2714357101625965</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.438588784229264</v>
+        <v>5.438416724739756</v>
       </c>
       <c r="C47" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D47" t="n">
-        <v>5.571811509937937</v>
+        <v>5.567093691935314</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0005595032300375831</v>
+        <v>0.000246928351084011</v>
       </c>
       <c r="F47" t="n">
-        <v>5.571811509937937</v>
+        <v>5.567093691935314</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2748767987149999</v>
+        <v>0.265773957677184</v>
       </c>
       <c r="H47" t="n">
-        <v>5.438588784229264</v>
+        <v>5.438416724739756</v>
       </c>
       <c r="I47" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J47" t="n">
-        <v>5.438588784229264</v>
+        <v>5.438416724739756</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2951590529297402</v>
+        <v>0.2948652278735407</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.452487271959254</v>
+        <v>5.452311388925535</v>
       </c>
       <c r="C48" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D48" t="n">
-        <v>5.585420606066597</v>
+        <v>5.580597947663916</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0007233117744410372</v>
+        <v>0.0002867111391230179</v>
       </c>
       <c r="F48" t="n">
-        <v>5.585420606066597</v>
+        <v>5.580597947663916</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3017972539440446</v>
+        <v>0.2921323113355934</v>
       </c>
       <c r="H48" t="n">
-        <v>5.452487271959254</v>
+        <v>5.452311388925535</v>
       </c>
       <c r="I48" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J48" t="n">
-        <v>5.452487271959254</v>
+        <v>5.452311388925535</v>
       </c>
       <c r="K48" t="n">
-        <v>0.319517047105826</v>
+        <v>0.3192008177973565</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.466385759689244</v>
+        <v>5.466206053111314</v>
       </c>
       <c r="C49" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D49" t="n">
-        <v>5.599029702195257</v>
+        <v>5.594102203392518</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0009801495095780044</v>
+        <v>0.0004157621041834746</v>
       </c>
       <c r="F49" t="n">
-        <v>5.599029702195257</v>
+        <v>5.594102203392518</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3295077825673586</v>
+        <v>0.3193850820691729</v>
       </c>
       <c r="H49" t="n">
-        <v>5.466385759689244</v>
+        <v>5.466206053111314</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J49" t="n">
-        <v>5.466385759689244</v>
+        <v>5.466206053111314</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3447976752929572</v>
+        <v>0.3444658444132168</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.480284247419234</v>
+        <v>5.480100717297092</v>
       </c>
       <c r="C50" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D50" t="n">
-        <v>5.612638798323918</v>
+        <v>5.60760645912112</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001352955770787991</v>
+        <v>0.0006194211022546016</v>
       </c>
       <c r="F50" t="n">
-        <v>5.612638798323918</v>
+        <v>5.60760645912112</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3578360543156721</v>
+        <v>0.3473278405714861</v>
       </c>
       <c r="H50" t="n">
-        <v>5.480284247419234</v>
+        <v>5.480100717297092</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J50" t="n">
-        <v>5.480284247419234</v>
+        <v>5.480100717297092</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3709451490225784</v>
+        <v>0.3705946268059538</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.494182735149223</v>
+        <v>5.493995381482871</v>
       </c>
       <c r="C51" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D51" t="n">
-        <v>5.626247894452577</v>
+        <v>5.621110714849722</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00188529858457552</v>
+        <v>0.0009421131932984099</v>
       </c>
       <c r="F51" t="n">
-        <v>5.626247894452577</v>
+        <v>5.621110714849722</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3867195569082673</v>
+        <v>0.3757729808094257</v>
       </c>
       <c r="H51" t="n">
-        <v>5.494182735149223</v>
+        <v>5.493995381482871</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000337287563958393</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J51" t="n">
-        <v>5.494182735149223</v>
+        <v>5.493995381482871</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3979915990084659</v>
+        <v>0.3976224519277265</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.508081222879213</v>
+        <v>5.507890045668649</v>
       </c>
       <c r="C52" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D52" t="n">
-        <v>5.639856990581237</v>
+        <v>5.634614970578324</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00259546189121025</v>
+        <v>0.001394960871924782</v>
       </c>
       <c r="F52" t="n">
-        <v>5.639856990581237</v>
+        <v>5.634614970578324</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4159274288334737</v>
+        <v>0.4046245444799162</v>
       </c>
       <c r="H52" t="n">
-        <v>5.508081222879213</v>
+        <v>5.507890045668649</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000340476593557516</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J52" t="n">
-        <v>5.508081222879213</v>
+        <v>5.507890045668649</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4259097564357379</v>
+        <v>0.4255209506810309</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.521979710609203</v>
+        <v>5.521784709854428</v>
       </c>
       <c r="C53" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D53" t="n">
-        <v>5.653466086709898</v>
+        <v>5.648119226306926</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003535010103881012</v>
+        <v>0.002044988585457199</v>
       </c>
       <c r="F53" t="n">
-        <v>5.653466086709898</v>
+        <v>5.648119226306926</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4454280729167939</v>
+        <v>0.4337878742909786</v>
       </c>
       <c r="H53" t="n">
-        <v>5.521979710609203</v>
+        <v>5.521784709854428</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0003656912384004693</v>
+        <v>0.000298958875852126</v>
       </c>
       <c r="J53" t="n">
-        <v>5.521979710609203</v>
+        <v>5.521784709854428</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4547071437436012</v>
+        <v>0.4542956255860703</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.535878198339192</v>
+        <v>5.535679374040206</v>
       </c>
       <c r="C54" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D54" t="n">
-        <v>5.667075182838558</v>
+        <v>5.661623482035528</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004782753144657387</v>
+        <v>0.002933907588340537</v>
       </c>
       <c r="F54" t="n">
-        <v>5.667075182838558</v>
+        <v>5.661623482035528</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4750258416702533</v>
+        <v>0.4631817050153322</v>
       </c>
       <c r="H54" t="n">
-        <v>5.535878198339192</v>
+        <v>5.535679374040206</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0004017588313833423</v>
+        <v>0.0003030385693486796</v>
       </c>
       <c r="J54" t="n">
-        <v>5.535878198339192</v>
+        <v>5.535679374040206</v>
       </c>
       <c r="K54" t="n">
-        <v>0.4843637679569079</v>
+        <v>0.4839358061430715</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.549776686069182</v>
+        <v>5.549574038225985</v>
       </c>
       <c r="C55" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D55" t="n">
-        <v>5.680684278967219</v>
+        <v>5.67512773776413</v>
       </c>
       <c r="E55" t="n">
-        <v>0.006367874370143364</v>
+        <v>0.004150016826581286</v>
       </c>
       <c r="F55" t="n">
-        <v>5.680684278967219</v>
+        <v>5.67512773776413</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5048638379182254</v>
+        <v>0.4926899735534624</v>
       </c>
       <c r="H55" t="n">
-        <v>5.549776686069182</v>
+        <v>5.549574038225985</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0004658147993397793</v>
+        <v>0.0003231472808347643</v>
       </c>
       <c r="J55" t="n">
-        <v>5.549776686069182</v>
+        <v>5.549574038225985</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5147284116447371</v>
+        <v>0.5142852920284472</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.563675173799172</v>
+        <v>5.563468702411763</v>
       </c>
       <c r="C56" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D56" t="n">
-        <v>5.694293375095879</v>
+        <v>5.688631993492733</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008392031830245554</v>
+        <v>0.005773467444042956</v>
       </c>
       <c r="F56" t="n">
-        <v>5.694293375095879</v>
+        <v>5.688631993492733</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5347630271063772</v>
+        <v>0.5223169593444119</v>
       </c>
       <c r="H56" t="n">
-        <v>5.563675173799172</v>
+        <v>5.563468702411763</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0005888188643211339</v>
+        <v>0.0003538857333215196</v>
       </c>
       <c r="J56" t="n">
-        <v>5.563675173799172</v>
+        <v>5.563468702411763</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5458441922387146</v>
+        <v>0.5453758186864771</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.577573661529161</v>
+        <v>5.577363366597542</v>
       </c>
       <c r="C57" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D57" t="n">
-        <v>5.707902471224539</v>
+        <v>5.702136249221335</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01093750686164274</v>
+        <v>0.007886889724446037</v>
       </c>
       <c r="F57" t="n">
-        <v>5.707902471224539</v>
+        <v>5.702136249221335</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5648102332266136</v>
+        <v>0.5520291862076492</v>
       </c>
       <c r="H57" t="n">
-        <v>5.577573661529161</v>
+        <v>5.577363366597542</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0007764903595187132</v>
+        <v>0.0004366111931522937</v>
       </c>
       <c r="J57" t="n">
-        <v>5.577573661529161</v>
+        <v>5.577363366597542</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5774972117048595</v>
+        <v>0.577017552898165</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.591472149259151</v>
+        <v>5.59125803078332</v>
       </c>
       <c r="C58" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D58" t="n">
-        <v>5.721511567353199</v>
+        <v>5.715640504949937</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01412241484718627</v>
+        <v>0.01066494054728481</v>
       </c>
       <c r="F58" t="n">
-        <v>5.721511567353199</v>
+        <v>5.715640504949937</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5949064265965874</v>
+        <v>0.5819204223074844</v>
       </c>
       <c r="H58" t="n">
-        <v>5.591472149259151</v>
+        <v>5.59125803078332</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00103178274478923</v>
+        <v>0.0005840045120518587</v>
       </c>
       <c r="J58" t="n">
-        <v>5.591472149259151</v>
+        <v>5.59125803078332</v>
       </c>
       <c r="K58" t="n">
-        <v>0.6094826165995003</v>
+        <v>0.6089880230813751</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.605370636989141</v>
+        <v>5.605152694969099</v>
       </c>
       <c r="C59" t="n">
         <v>0.0002533945016470683</v>
       </c>
       <c r="D59" t="n">
-        <v>5.735120663481859</v>
+        <v>5.729144760678539</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01801150874698604</v>
+        <v>0.01417066384358576</v>
       </c>
       <c r="F59" t="n">
-        <v>5.735120663481859</v>
+        <v>5.729144760678539</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6251828903409877</v>
+        <v>0.6118448311570442</v>
       </c>
       <c r="H59" t="n">
-        <v>5.605370636989141</v>
+        <v>5.605152694969099</v>
       </c>
       <c r="I59" t="n">
-        <v>0.001433319201744475</v>
+        <v>0.0007972962673872771</v>
       </c>
       <c r="J59" t="n">
-        <v>5.605370636989141</v>
+        <v>5.605152694969099</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6416309878010524</v>
+        <v>0.6411278368490523</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.619269124719131</v>
+        <v>5.619047359154877</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0003456670606894998</v>
+        <v>0.0003432039098717009</v>
       </c>
       <c r="D60" t="n">
-        <v>5.748729759610519</v>
+        <v>5.742649016407141</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02269091178319227</v>
+        <v>0.01859234202754539</v>
       </c>
       <c r="F60" t="n">
-        <v>5.748729759610519</v>
+        <v>5.742649016407141</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6555370731952752</v>
+        <v>0.6419877829044235</v>
       </c>
       <c r="H60" t="n">
-        <v>5.619269124719131</v>
+        <v>5.619047359154877</v>
       </c>
       <c r="I60" t="n">
-        <v>0.001998309211055275</v>
+        <v>0.00113799820822372</v>
       </c>
       <c r="J60" t="n">
-        <v>5.619269124719131</v>
+        <v>5.619047359154877</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6736398646545761</v>
+        <v>0.6731294944663935</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.633167612449121</v>
+        <v>5.632942023340656</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0005649911997003263</v>
+        <v>0.0005603016599057038</v>
       </c>
       <c r="D61" t="n">
-        <v>5.76233885573918</v>
+        <v>5.756153272135743</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02828538548756249</v>
+        <v>0.0240733769700847</v>
       </c>
       <c r="F61" t="n">
-        <v>5.76233885573918</v>
+        <v>5.756153272135743</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6861039070731604</v>
+        <v>0.6721994341256353</v>
       </c>
       <c r="H61" t="n">
-        <v>5.633167612449121</v>
+        <v>5.632942023340656</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00274818421971658</v>
+        <v>0.001688991640722704</v>
       </c>
       <c r="J61" t="n">
-        <v>5.633167612449121</v>
+        <v>5.632942023340656</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7053063949725521</v>
+        <v>0.7048006553179169</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.64706610017911</v>
+        <v>5.646836687526434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.000899758097465073</v>
+        <v>0.0008933578878310157</v>
       </c>
       <c r="D62" t="n">
-        <v>5.77594795186784</v>
+        <v>5.769657527864345</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0348744158211452</v>
+        <v>0.03080406006179892</v>
       </c>
       <c r="F62" t="n">
-        <v>5.77594795186784</v>
+        <v>5.769657527864345</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7168379043193657</v>
+        <v>0.7025895227576155</v>
       </c>
       <c r="H62" t="n">
-        <v>5.64706610017911</v>
+        <v>5.646836687526434</v>
       </c>
       <c r="I62" t="n">
-        <v>0.003759856105217404</v>
+        <v>0.002467084260424423</v>
       </c>
       <c r="J62" t="n">
-        <v>5.64706610017911</v>
+        <v>5.646836687526434</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7362473856962772</v>
+        <v>0.7357394868790624</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.6609645879091</v>
+        <v>5.660731351712212</v>
       </c>
       <c r="C63" t="n">
-        <v>0.001388925773390676</v>
+        <v>0.001377644445432437</v>
       </c>
       <c r="D63" t="n">
-        <v>5.7895570479965</v>
+        <v>5.783161783592947</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04257099361698741</v>
+        <v>0.03896426516436798</v>
       </c>
       <c r="F63" t="n">
-        <v>5.7895570479965</v>
+        <v>5.783161783592947</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7476834992043987</v>
+        <v>0.7331106138359322</v>
       </c>
       <c r="H63" t="n">
-        <v>5.6609645879091</v>
+        <v>5.660731351712212</v>
       </c>
       <c r="I63" t="n">
-        <v>0.00505860015479488</v>
+        <v>0.003542089183628039</v>
       </c>
       <c r="J63" t="n">
-        <v>5.6609645879091</v>
+        <v>5.660731351712212</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7663593403148274</v>
+        <v>0.7658644608530872</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.67486307563909</v>
+        <v>5.67462601589799</v>
       </c>
       <c r="C64" t="n">
-        <v>0.002125997438216042</v>
+        <v>0.002111181932789261</v>
       </c>
       <c r="D64" t="n">
-        <v>5.803166144125161</v>
+        <v>5.796666039321549</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05148891974705166</v>
+        <v>0.04870602691923248</v>
       </c>
       <c r="F64" t="n">
-        <v>5.803166144125161</v>
+        <v>5.796666039321549</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7786873702177358</v>
+        <v>0.7639125950564978</v>
       </c>
       <c r="H64" t="n">
-        <v>5.67486307563909</v>
+        <v>5.67462601589799</v>
       </c>
       <c r="I64" t="n">
-        <v>0.006750939410088932</v>
+        <v>0.004987269930462799</v>
       </c>
       <c r="J64" t="n">
-        <v>5.67486307563909</v>
+        <v>5.67462601589799</v>
       </c>
       <c r="K64" t="n">
-        <v>0.7951376324173726</v>
+        <v>0.7946585449369382</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.68876156336908</v>
+        <v>5.688520680083769</v>
       </c>
       <c r="C65" t="n">
-        <v>0.003143023276161978</v>
+        <v>0.00312381222975582</v>
       </c>
       <c r="D65" t="n">
-        <v>5.816775240253821</v>
+        <v>5.81017029505015</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06171346742691539</v>
+        <v>0.06035043046992403</v>
       </c>
       <c r="F65" t="n">
-        <v>5.816775240253821</v>
+        <v>5.81017029505015</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8098947640729516</v>
+        <v>0.7947402838478536</v>
       </c>
       <c r="H65" t="n">
-        <v>5.68876156336908</v>
+        <v>5.688520680083769</v>
       </c>
       <c r="I65" t="n">
-        <v>0.008923134963934496</v>
+        <v>0.006934095782528876</v>
       </c>
       <c r="J65" t="n">
-        <v>5.68876156336908</v>
+        <v>5.688520680083769</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8225277918356148</v>
+        <v>0.8220617286342016</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.70266005109907</v>
+        <v>5.702415344269548</v>
       </c>
       <c r="C66" t="n">
-        <v>0.004580719475160926</v>
+        <v>0.004550089168122582</v>
       </c>
       <c r="D66" t="n">
-        <v>5.830384336382481</v>
+        <v>5.823674550778752</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07336097482387591</v>
+        <v>0.07401860435582543</v>
       </c>
       <c r="F66" t="n">
-        <v>5.830384336382481</v>
+        <v>5.823674550778752</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8412162461573214</v>
+        <v>0.8257271375068026</v>
       </c>
       <c r="H66" t="n">
-        <v>5.70266005109907</v>
+        <v>5.702415344269548</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01163445795408558</v>
+        <v>0.009444246001196031</v>
       </c>
       <c r="J66" t="n">
-        <v>5.70266005109907</v>
+        <v>5.702415344269548</v>
       </c>
       <c r="K66" t="n">
-        <v>0.8483719713582288</v>
+        <v>0.8479267734250951</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.716558538829059</v>
+        <v>5.716310008455326</v>
       </c>
       <c r="C67" t="n">
-        <v>0.006514723298059377</v>
+        <v>0.006476450543252214</v>
       </c>
       <c r="D67" t="n">
-        <v>5.843993432511141</v>
+        <v>5.837178806507354</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08655765260851968</v>
+        <v>0.08988529462274437</v>
       </c>
       <c r="F67" t="n">
-        <v>5.843993432511141</v>
+        <v>5.837178806507354</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8725421847338263</v>
+        <v>0.8568171034635473</v>
       </c>
       <c r="H67" t="n">
-        <v>5.716558538829059</v>
+        <v>5.716310008455326</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01501343820167738</v>
+        <v>0.012722479566971</v>
       </c>
       <c r="J67" t="n">
-        <v>5.716558538829059</v>
+        <v>5.716310008455326</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8724938887332389</v>
+        <v>0.8720867749603438</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.730457026559049</v>
+        <v>5.730204672641104</v>
       </c>
       <c r="C68" t="n">
-        <v>0.00904519830822847</v>
+        <v>0.008988419790034398</v>
       </c>
       <c r="D68" t="n">
-        <v>5.857602528639801</v>
+        <v>5.850683062235956</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1013961473053678</v>
+        <v>0.1083517483991077</v>
       </c>
       <c r="F68" t="n">
-        <v>5.857602528639801</v>
+        <v>5.850683062235956</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9038746025419937</v>
+        <v>0.8879814160020553</v>
       </c>
       <c r="H68" t="n">
-        <v>5.730457026559049</v>
+        <v>5.730204672641104</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01912122159600572</v>
+        <v>0.016816369643999</v>
       </c>
       <c r="J68" t="n">
-        <v>5.730457026559049</v>
+        <v>5.730204672641104</v>
       </c>
       <c r="K68" t="n">
-        <v>0.894749142958318</v>
+        <v>0.8943610502588338</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.744355514289039</v>
+        <v>5.744099336826883</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01237889868118685</v>
+        <v>0.01231041701380067</v>
       </c>
       <c r="D69" t="n">
-        <v>5.871211624768462</v>
+        <v>5.864187317964558</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1179380892457544</v>
+        <v>0.129444593591326</v>
       </c>
       <c r="F69" t="n">
-        <v>5.871211624768462</v>
+        <v>5.864187317964558</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9351213079196129</v>
+        <v>0.919029941911115</v>
       </c>
       <c r="H69" t="n">
-        <v>5.744355514289039</v>
+        <v>5.744099336826883</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02409621713364279</v>
+        <v>0.02198285228783026</v>
       </c>
       <c r="J69" t="n">
-        <v>5.744355514289039</v>
+        <v>5.744099336826883</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9152742660711285</v>
+        <v>0.9149096432157591</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.758254002019028</v>
+        <v>5.757994001012662</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01651033403519756</v>
+        <v>0.01642866720555575</v>
       </c>
       <c r="D70" t="n">
-        <v>5.884820720897122</v>
+        <v>5.87769157369316</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1363441712441765</v>
+        <v>0.1533955450827222</v>
       </c>
       <c r="F70" t="n">
-        <v>5.884820720897122</v>
+        <v>5.87769157369316</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9660514200194535</v>
+        <v>0.9498803063873846</v>
       </c>
       <c r="H70" t="n">
-        <v>5.758254002019028</v>
+        <v>5.757994001012662</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03004589090914879</v>
+        <v>0.02827814140089131</v>
       </c>
       <c r="J70" t="n">
-        <v>5.758254002019028</v>
+        <v>5.757994001012662</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9340702722021872</v>
+        <v>0.9337279355117675</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.772152489749018</v>
+        <v>5.77188866519844</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02170017033471599</v>
+        <v>0.02158935953157638</v>
       </c>
       <c r="D71" t="n">
-        <v>5.898429817025782</v>
+        <v>5.891195829421762</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1567035124696067</v>
+        <v>0.1804687729772156</v>
       </c>
       <c r="F71" t="n">
-        <v>5.898429817025782</v>
+        <v>5.891195829421762</v>
       </c>
       <c r="G71" t="n">
-        <v>0.99651942159733</v>
+        <v>0.9804053265209253</v>
       </c>
       <c r="H71" t="n">
-        <v>5.772152489749018</v>
+        <v>5.77188866519844</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03706523991755344</v>
+        <v>0.03596583073049859</v>
       </c>
       <c r="J71" t="n">
-        <v>5.772152489749018</v>
+        <v>5.77188866519844</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9511365878228338</v>
+        <v>0.950828840900936</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.786050977479007</v>
+        <v>5.785783329384219</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02794831733737634</v>
+        <v>0.02782027980564294</v>
       </c>
       <c r="D72" t="n">
-        <v>5.912038913154443</v>
+        <v>5.904700085150364</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1789833976332996</v>
+        <v>0.2106243418147565</v>
       </c>
       <c r="F72" t="n">
-        <v>5.912038913154443</v>
+        <v>5.904700085150364</v>
       </c>
       <c r="G72" t="n">
-        <v>1.026261206998308</v>
+        <v>1.010328878061459</v>
       </c>
       <c r="H72" t="n">
-        <v>5.786050977479007</v>
+        <v>5.785783329384219</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0453319526094741</v>
+        <v>0.04514342012117554</v>
       </c>
       <c r="J72" t="n">
-        <v>5.786050977479007</v>
+        <v>5.785783329384219</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9665080699773352</v>
+        <v>0.9662310128805592</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.799949465208997</v>
+        <v>5.799677993569997</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03534860920426266</v>
+        <v>0.03518478550835377</v>
       </c>
       <c r="D73" t="n">
-        <v>5.925648009283103</v>
+        <v>5.918204340878966</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2033895293507635</v>
+        <v>0.2439854009266443</v>
       </c>
       <c r="F73" t="n">
-        <v>5.925648009283103</v>
+        <v>5.918204340878966</v>
       </c>
       <c r="G73" t="n">
-        <v>1.055018124204613</v>
+        <v>1.039423395801619</v>
       </c>
       <c r="H73" t="n">
-        <v>5.799949465208997</v>
+        <v>5.799677993569997</v>
       </c>
       <c r="I73" t="n">
-        <v>0.05491641039667955</v>
+        <v>0.05605648211288047</v>
       </c>
       <c r="J73" t="n">
-        <v>5.799949465208997</v>
+        <v>5.799677993569997</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9802729481982099</v>
+        <v>0.9800200492857446</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.813847952938987</v>
+        <v>5.813572657755776</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04407577289828312</v>
+        <v>0.04389155794020031</v>
       </c>
       <c r="D74" t="n">
-        <v>5.939257105411763</v>
+        <v>5.931708596607568</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2298204463412959</v>
+        <v>0.2805326694229849</v>
       </c>
       <c r="F74" t="n">
-        <v>5.939257105411763</v>
+        <v>5.931708596607568</v>
       </c>
       <c r="G74" t="n">
-        <v>1.082359288986759</v>
+        <v>1.06736745443833</v>
       </c>
       <c r="H74" t="n">
-        <v>5.813847952938987</v>
+        <v>5.813572657755776</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06597367869561867</v>
+        <v>0.06883635748197232</v>
       </c>
       <c r="J74" t="n">
-        <v>5.813847952938987</v>
+        <v>5.813572657755776</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9925638433604211</v>
+        <v>0.9923312824259352</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.827746440668977</v>
+        <v>5.827467321941554</v>
       </c>
       <c r="C75" t="n">
-        <v>0.05399317421377117</v>
+        <v>0.0537876507980944</v>
       </c>
       <c r="D75" t="n">
-        <v>5.952866201540424</v>
+        <v>5.94521285233617</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2582970390031358</v>
+        <v>0.3201408468575167</v>
       </c>
       <c r="F75" t="n">
-        <v>5.952866201540424</v>
+        <v>5.94521285233617</v>
       </c>
       <c r="G75" t="n">
-        <v>1.108091671478151</v>
+        <v>1.093893392942164</v>
       </c>
       <c r="H75" t="n">
-        <v>5.827746440668977</v>
+        <v>5.827467321941554</v>
       </c>
       <c r="I75" t="n">
-        <v>0.078650002467841</v>
+        <v>0.08372591059821682</v>
       </c>
       <c r="J75" t="n">
-        <v>5.827746440668977</v>
+        <v>5.827467321941554</v>
       </c>
       <c r="K75" t="n">
-        <v>1.003288451442995</v>
+        <v>1.003090604441529</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.841644928398967</v>
+        <v>5.841361986127333</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06535884667518059</v>
+        <v>0.0651115594748065</v>
       </c>
       <c r="D76" t="n">
-        <v>5.966475297669083</v>
+        <v>5.958717108064772</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2888210142074409</v>
+        <v>0.3625982854406824</v>
       </c>
       <c r="F76" t="n">
-        <v>5.966475297669083</v>
+        <v>5.958717108064772</v>
       </c>
       <c r="G76" t="n">
-        <v>1.131683119303128</v>
+        <v>1.118498205440298</v>
       </c>
       <c r="H76" t="n">
-        <v>5.841644928398967</v>
+        <v>5.841361986127333</v>
       </c>
       <c r="I76" t="n">
-        <v>0.09304277744276135</v>
+        <v>0.1008357044374689</v>
       </c>
       <c r="J76" t="n">
-        <v>5.841644928398967</v>
+        <v>5.841361986127333</v>
       </c>
       <c r="K76" t="n">
-        <v>1.012570455387736</v>
+        <v>1.012392244166973</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.855543416128956</v>
+        <v>5.855256650313111</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07802130467200692</v>
+        <v>0.07775050583753855</v>
       </c>
       <c r="D77" t="n">
-        <v>5.980084393797743</v>
+        <v>5.972221363793374</v>
       </c>
       <c r="E77" t="n">
-        <v>0.321264976451408</v>
+        <v>0.4076325900314517</v>
       </c>
       <c r="F77" t="n">
-        <v>5.980084393797743</v>
+        <v>5.972221363793374</v>
       </c>
       <c r="G77" t="n">
-        <v>1.152859394738544</v>
+        <v>1.140913032687165</v>
       </c>
       <c r="H77" t="n">
-        <v>5.855543416128956</v>
+        <v>5.855256650313111</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1093334085876451</v>
+        <v>0.1204604431327003</v>
       </c>
       <c r="J77" t="n">
-        <v>5.855543416128956</v>
+        <v>5.855256650313111</v>
       </c>
       <c r="K77" t="n">
-        <v>1.020387508023608</v>
+        <v>1.020240073791292</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.869441903858946</v>
+        <v>5.86915131449889</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09206464601204019</v>
+        <v>0.09174811341043983</v>
       </c>
       <c r="D78" t="n">
-        <v>5.993693489926404</v>
+        <v>5.985725619521976</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3555049543275399</v>
+        <v>0.4547651228393523</v>
       </c>
       <c r="F78" t="n">
-        <v>5.993693489926404</v>
+        <v>5.985725619521976</v>
       </c>
       <c r="G78" t="n">
-        <v>1.171089302188022</v>
+        <v>1.160783198631629</v>
       </c>
       <c r="H78" t="n">
-        <v>5.869441903858946</v>
+        <v>5.86915131449889</v>
       </c>
       <c r="I78" t="n">
-        <v>0.127611139404907</v>
+        <v>0.1426176381488386</v>
       </c>
       <c r="J78" t="n">
-        <v>5.869441903858946</v>
+        <v>5.86915131449889</v>
       </c>
       <c r="K78" t="n">
-        <v>1.026662995564209</v>
+        <v>1.02654528476923</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.883340391588936</v>
+        <v>5.883045978684668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.107618683565899</v>
+        <v>0.1072756554704472</v>
       </c>
       <c r="D79" t="n">
-        <v>6.007302586055064</v>
+        <v>5.999229875250578</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3913580684414404</v>
+        <v>0.5036790672598256</v>
       </c>
       <c r="F79" t="n">
-        <v>6.007302586055064</v>
+        <v>5.999229875250578</v>
       </c>
       <c r="G79" t="n">
-        <v>1.186311508391191</v>
+        <v>1.177686339643391</v>
       </c>
       <c r="H79" t="n">
-        <v>5.883340391588936</v>
+        <v>5.883045978684668</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1479792779729684</v>
+        <v>0.1676698335253109</v>
       </c>
       <c r="J79" t="n">
-        <v>5.883340391588936</v>
+        <v>5.883045978684668</v>
       </c>
       <c r="K79" t="n">
-        <v>1.031425305822321</v>
+        <v>1.031338080401772</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.897238879318926</v>
+        <v>5.896940642870447</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1245640594016923</v>
+        <v>0.1241929240525488</v>
       </c>
       <c r="D80" t="n">
-        <v>6.020911682183725</v>
+        <v>6.01273413097918</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4287345118124962</v>
+        <v>0.5536586639299266</v>
       </c>
       <c r="F80" t="n">
-        <v>6.020911682183725</v>
+        <v>6.01273413097918</v>
       </c>
       <c r="G80" t="n">
-        <v>1.197933964899846</v>
+        <v>1.191367961850163</v>
       </c>
       <c r="H80" t="n">
-        <v>5.897238879318926</v>
+        <v>5.896940642870447</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1705744451479838</v>
+        <v>0.1955100379702436</v>
       </c>
       <c r="J80" t="n">
-        <v>5.897238879318926</v>
+        <v>5.896940642870447</v>
       </c>
       <c r="K80" t="n">
-        <v>1.034699948181643</v>
+        <v>1.03464327171031</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.911137367048916</v>
+        <v>5.910835307056225</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1433169798033654</v>
+        <v>0.1428885655116884</v>
       </c>
       <c r="D81" t="n">
-        <v>6.034520778312385</v>
+        <v>6.026238386707782</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4672676305497278</v>
+        <v>0.6041694897342477</v>
       </c>
       <c r="F81" t="n">
-        <v>6.034520778312385</v>
+        <v>6.026238386707782</v>
       </c>
       <c r="G81" t="n">
-        <v>1.206067065925476</v>
+        <v>1.201567812705932</v>
       </c>
       <c r="H81" t="n">
-        <v>5.911137367048916</v>
+        <v>5.910835307056225</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1953992021353741</v>
+        <v>0.2264619618590101</v>
       </c>
       <c r="J81" t="n">
-        <v>5.911137367048916</v>
+        <v>5.910835307056225</v>
       </c>
       <c r="K81" t="n">
-        <v>1.036370936893146</v>
+        <v>1.036351429439114</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.925035854778905</v>
+        <v>5.924729971242003</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1637715066127284</v>
+        <v>0.1633078799633737</v>
       </c>
       <c r="D82" t="n">
-        <v>6.048129874441045</v>
+        <v>6.039742642436384</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5067821372604536</v>
+        <v>0.6545578177936506</v>
       </c>
       <c r="F82" t="n">
-        <v>6.048129874441045</v>
+        <v>6.039742642436384</v>
       </c>
       <c r="G82" t="n">
-        <v>1.210336624005348</v>
+        <v>1.208120762213615</v>
       </c>
       <c r="H82" t="n">
-        <v>5.925035854778905</v>
+        <v>5.924729971242003</v>
       </c>
       <c r="I82" t="n">
-        <v>0.222548382175351</v>
+        <v>0.2603439331014153</v>
       </c>
       <c r="J82" t="n">
-        <v>5.925035854778905</v>
+        <v>5.924729971242003</v>
       </c>
       <c r="K82" t="n">
-        <v>1.036607264315707</v>
+        <v>1.036627074630052</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.938934342508895</v>
+        <v>5.938624635427782</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1862792568182453</v>
+        <v>0.1857406923516484</v>
       </c>
       <c r="D83" t="n">
-        <v>6.061738970569706</v>
+        <v>6.053246898164987</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5469923281866335</v>
+        <v>0.7042216158839819</v>
       </c>
       <c r="F83" t="n">
-        <v>6.061738970569706</v>
+        <v>6.053246898164987</v>
       </c>
       <c r="G83" t="n">
-        <v>1.210856652086802</v>
+        <v>1.210940094867721</v>
       </c>
       <c r="H83" t="n">
-        <v>5.938934342508895</v>
+        <v>5.938624635427782</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2520149646524006</v>
+        <v>0.2972431597752478</v>
       </c>
       <c r="J83" t="n">
-        <v>5.938934342508895</v>
+        <v>5.938624635427782</v>
       </c>
       <c r="K83" t="n">
-        <v>1.03536540281028</v>
+        <v>1.035404559322607</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.952832830238885</v>
+        <v>5.95251929961356</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2111899991909353</v>
+        <v>0.2106044045659824</v>
       </c>
       <c r="D84" t="n">
-        <v>6.075348066698366</v>
+        <v>6.066751153893589</v>
       </c>
       <c r="E84" t="n">
-        <v>0.587581843824155</v>
+        <v>0.7524788832075447</v>
       </c>
       <c r="F84" t="n">
-        <v>6.075348066698366</v>
+        <v>6.066751153893589</v>
       </c>
       <c r="G84" t="n">
-        <v>1.207664807338358</v>
+        <v>1.210124141865785</v>
       </c>
       <c r="H84" t="n">
-        <v>5.952832830238885</v>
+        <v>5.95251929961356</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2836667151440893</v>
+        <v>0.3369956439709474</v>
       </c>
       <c r="J84" t="n">
-        <v>5.952832830238885</v>
+        <v>5.95251929961356</v>
       </c>
       <c r="K84" t="n">
-        <v>1.03279551580259</v>
+        <v>1.032869520566702</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.966731317968875</v>
+        <v>5.966413963799338</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2385361283784529</v>
+        <v>0.2378983467475893</v>
       </c>
       <c r="D85" t="n">
-        <v>6.088957162827025</v>
+        <v>6.08025540962219</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6283213303006803</v>
+        <v>0.7987269373512258</v>
       </c>
       <c r="F85" t="n">
-        <v>6.088957162827025</v>
+        <v>6.08025540962219</v>
       </c>
       <c r="G85" t="n">
-        <v>1.201055841318404</v>
+        <v>1.205716681804202</v>
       </c>
       <c r="H85" t="n">
-        <v>5.966731317968875</v>
+        <v>5.966413963799338</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3175997548868993</v>
+        <v>0.3793486512579848</v>
       </c>
       <c r="J85" t="n">
-        <v>5.966731317968875</v>
+        <v>5.966413963799338</v>
       </c>
       <c r="K85" t="n">
-        <v>1.028820351540891</v>
+        <v>1.028925892172176</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.980629805698864</v>
+        <v>5.980308627985117</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2692846692680703</v>
+        <v>0.2685342747489803</v>
       </c>
       <c r="D86" t="n">
-        <v>6.102566258955686</v>
+        <v>6.093759665350792</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6688744461928212</v>
+        <v>0.8425827359704637</v>
       </c>
       <c r="F86" t="n">
-        <v>6.102566258955686</v>
+        <v>6.093759665350792</v>
       </c>
       <c r="G86" t="n">
-        <v>1.191127607791527</v>
+        <v>1.197868075782352</v>
       </c>
       <c r="H86" t="n">
-        <v>5.980629805698864</v>
+        <v>5.980308627985117</v>
       </c>
       <c r="I86" t="n">
-        <v>0.353450405290734</v>
+        <v>0.424152006647693</v>
       </c>
       <c r="J86" t="n">
-        <v>5.980629805698864</v>
+        <v>5.980308627985117</v>
       </c>
       <c r="K86" t="n">
-        <v>1.023721883932715</v>
+        <v>1.023848422741614</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.994528293428854</v>
+        <v>5.994203292170896</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3032241023265392</v>
+        <v>0.3024045215987612</v>
       </c>
       <c r="D87" t="n">
-        <v>6.116175355084346</v>
+        <v>6.107263921079394</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7089600520804913</v>
+        <v>0.8834409816584065</v>
       </c>
       <c r="F87" t="n">
-        <v>6.116175355084346</v>
+        <v>6.107263921079394</v>
       </c>
       <c r="G87" t="n">
-        <v>1.178224762105147</v>
+        <v>1.18696075241085</v>
       </c>
       <c r="H87" t="n">
-        <v>5.994528293428854</v>
+        <v>5.994203292170896</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3912773996595528</v>
+        <v>0.4708691842324003</v>
       </c>
       <c r="J87" t="n">
-        <v>5.994528293428854</v>
+        <v>5.994203292170896</v>
       </c>
       <c r="K87" t="n">
-        <v>1.017490367972634</v>
+        <v>1.017650940744426</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.008426781158843</v>
+        <v>6.008097956356674</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3410882473508326</v>
+        <v>0.3401234278157944</v>
       </c>
       <c r="D88" t="n">
-        <v>6.129784451213006</v>
+        <v>6.120768176807996</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7484039910683508</v>
+        <v>0.9210908961815937</v>
       </c>
       <c r="F88" t="n">
-        <v>6.129784451213006</v>
+        <v>6.120768176807996</v>
       </c>
       <c r="G88" t="n">
-        <v>1.162798269195986</v>
+        <v>1.173299702635551</v>
       </c>
       <c r="H88" t="n">
-        <v>6.008426781158843</v>
+        <v>6.008097956356674</v>
       </c>
       <c r="I88" t="n">
-        <v>0.430682372951303</v>
+        <v>0.5191975063934317</v>
       </c>
       <c r="J88" t="n">
-        <v>6.008426781158843</v>
+        <v>6.008097956356674</v>
       </c>
       <c r="K88" t="n">
-        <v>1.010241736373509</v>
+        <v>1.010422297836197</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.022325268888833</v>
+        <v>6.021992620542452</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3832249072904202</v>
+        <v>0.3821743383522329</v>
       </c>
       <c r="D89" t="n">
-        <v>6.143393547341667</v>
+        <v>6.134272432536598</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7869171514293706</v>
+        <v>0.9551759012635705</v>
       </c>
       <c r="F89" t="n">
-        <v>6.143393547341667</v>
+        <v>6.134272432536598</v>
       </c>
       <c r="G89" t="n">
-        <v>1.145196776623668</v>
+        <v>1.157261945189851</v>
       </c>
       <c r="H89" t="n">
-        <v>6.022325268888833</v>
+        <v>6.021992620542452</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4715161787341711</v>
+        <v>0.5685570047808617</v>
       </c>
       <c r="J89" t="n">
-        <v>6.022325268888833</v>
+        <v>6.021992620542452</v>
       </c>
       <c r="K89" t="n">
-        <v>1.002144249305102</v>
+        <v>1.002347068396416</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.036223756618823</v>
+        <v>6.035887284728231</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4295066554536078</v>
+        <v>0.4283223437481246</v>
       </c>
       <c r="D90" t="n">
-        <v>6.157002643470327</v>
+        <v>6.1477766882652</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8242782424465651</v>
+        <v>0.9856800085612479</v>
       </c>
       <c r="F90" t="n">
-        <v>6.157002643470327</v>
+        <v>6.1477766882652</v>
       </c>
       <c r="G90" t="n">
-        <v>1.125800697401132</v>
+        <v>1.139116434043743</v>
       </c>
       <c r="H90" t="n">
-        <v>6.036223756618823</v>
+        <v>6.035887284728231</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5134785603468706</v>
+        <v>0.6184569968035731</v>
       </c>
       <c r="J90" t="n">
-        <v>6.036223756618823</v>
+        <v>6.035887284728231</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9931919856469648</v>
+        <v>0.9934212011837561</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.050122244348813</v>
+        <v>6.04978194891401</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4809596153400051</v>
+        <v>0.4796427353771279</v>
       </c>
       <c r="D91" t="n">
-        <v>6.170611739598987</v>
+        <v>6.161280943993802</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8604441661475266</v>
+        <v>1.012564578652472</v>
       </c>
       <c r="F91" t="n">
-        <v>6.170611739598987</v>
+        <v>6.161280943993802</v>
       </c>
       <c r="G91" t="n">
-        <v>1.104917783383752</v>
+        <v>1.119342048532766</v>
       </c>
       <c r="H91" t="n">
-        <v>6.050122244348813</v>
+        <v>6.04978194891401</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5562649827536963</v>
+        <v>0.6683289290019583</v>
       </c>
       <c r="J91" t="n">
-        <v>6.050122244348813</v>
+        <v>6.04978194891401</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9835541210942657</v>
+        <v>0.9837975076392073</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.064020732078802</v>
+        <v>6.063676613099788</v>
       </c>
       <c r="C92" t="n">
-        <v>0.536694864977626</v>
+        <v>0.5352814004356886</v>
       </c>
       <c r="D92" t="n">
-        <v>6.184220835727648</v>
+        <v>6.174785199722404</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8952323980169798</v>
+        <v>1.035802534147182</v>
       </c>
       <c r="F92" t="n">
-        <v>6.184220835727648</v>
+        <v>6.174785199722404</v>
       </c>
       <c r="G92" t="n">
-        <v>1.082995730443227</v>
+        <v>1.098299778769977</v>
       </c>
       <c r="H92" t="n">
-        <v>6.064020732078802</v>
+        <v>6.063676613099788</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5995947926059803</v>
+        <v>0.7176611465499195</v>
       </c>
       <c r="J92" t="n">
-        <v>6.064020732078802</v>
+        <v>6.063676613099788</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9733328578632925</v>
+        <v>0.9735938828892797</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.077919219808792</v>
+        <v>6.077571277285567</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5971044778271536</v>
+        <v>0.5955194670972445</v>
       </c>
       <c r="D93" t="n">
-        <v>6.197829931856308</v>
+        <v>6.188289455451006</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9285044370533849</v>
+        <v>1.055721868011019</v>
       </c>
       <c r="F93" t="n">
-        <v>6.197829931856308</v>
+        <v>6.188289455451006</v>
       </c>
       <c r="G93" t="n">
-        <v>1.060337764217194</v>
+        <v>1.076303656645894</v>
       </c>
       <c r="H93" t="n">
-        <v>6.077919219808792</v>
+        <v>6.077571277285567</v>
       </c>
       <c r="I93" t="n">
-        <v>0.6431371379651174</v>
+        <v>0.7658056427994454</v>
       </c>
       <c r="J93" t="n">
-        <v>6.077919219808792</v>
+        <v>6.077571277285567</v>
       </c>
       <c r="K93" t="n">
-        <v>0.962662440758885</v>
+        <v>0.9629313221837393</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.091817707538782</v>
+        <v>6.091465941471345</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6616854506902455</v>
+        <v>0.6600127496167048</v>
       </c>
       <c r="D94" t="n">
-        <v>6.211439027984968</v>
+        <v>6.201793711179608</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9603689446473999</v>
+        <v>1.072563103985649</v>
       </c>
       <c r="F94" t="n">
-        <v>6.211439027984968</v>
+        <v>6.201793711179608</v>
       </c>
       <c r="G94" t="n">
-        <v>1.0372755923336</v>
+        <v>1.053659934848762</v>
       </c>
       <c r="H94" t="n">
-        <v>6.091817707538782</v>
+        <v>6.091465941471345</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6866201138838743</v>
+        <v>0.8124170054588534</v>
       </c>
       <c r="J94" t="n">
-        <v>6.091817707538782</v>
+        <v>6.091465941471345</v>
       </c>
       <c r="K94" t="n">
-        <v>0.9516272332256021</v>
+        <v>0.9519144453960483</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.105716195268772</v>
+        <v>6.105360605657124</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7296749892539645</v>
+        <v>0.7278685639996302</v>
       </c>
       <c r="D95" t="n">
-        <v>6.225048124113628</v>
+        <v>6.21529796690821</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9906878355142247</v>
+        <v>1.08653889541416</v>
       </c>
       <c r="F95" t="n">
-        <v>6.225048124113628</v>
+        <v>6.21529796690821</v>
       </c>
       <c r="G95" t="n">
-        <v>1.014060389163968</v>
+        <v>1.030665316986848</v>
       </c>
       <c r="H95" t="n">
-        <v>6.105716195268772</v>
+        <v>6.105360605657124</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7296973232323957</v>
+        <v>0.8568189096168614</v>
       </c>
       <c r="J95" t="n">
-        <v>6.105716195268772</v>
+        <v>6.105360605657124</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9402971893113676</v>
+        <v>0.9405915040730736</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.119614682998762</v>
+        <v>6.119255269842902</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8007979884411278</v>
+        <v>0.7989306936996913</v>
       </c>
       <c r="D96" t="n">
-        <v>6.238657220242288</v>
+        <v>6.228802222636812</v>
       </c>
       <c r="E96" t="n">
-        <v>1.019479710642173</v>
+        <v>1.098135154567309</v>
       </c>
       <c r="F96" t="n">
-        <v>6.238657220242288</v>
+        <v>6.228802222636812</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9910420713587401</v>
+        <v>1.007662226713822</v>
       </c>
       <c r="H96" t="n">
-        <v>6.119614682998762</v>
+        <v>6.119255269842902</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7721714640437737</v>
+        <v>0.8987873585023598</v>
       </c>
       <c r="J96" t="n">
-        <v>6.119614682998762</v>
+        <v>6.119255269842902</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9288564430086557</v>
+        <v>0.9291514097063637</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.133513170728751</v>
+        <v>6.133149934028681</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8736697338598727</v>
+        <v>0.8717542203261721</v>
       </c>
       <c r="D97" t="n">
-        <v>6.252266316370949</v>
+        <v>6.242306478365414</v>
       </c>
       <c r="E97" t="n">
-        <v>1.046880085283323</v>
+        <v>1.107718366556773</v>
       </c>
       <c r="F97" t="n">
-        <v>6.252266316370949</v>
+        <v>6.242306478365414</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9685720406075909</v>
+        <v>0.9849693639385099</v>
       </c>
       <c r="H97" t="n">
-        <v>6.133513170728751</v>
+        <v>6.133149934028681</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8137196103482697</v>
+        <v>0.9378604167357339</v>
       </c>
       <c r="J97" t="n">
-        <v>6.133513170728751</v>
+        <v>6.133149934028681</v>
       </c>
       <c r="K97" t="n">
-        <v>0.9173631855844012</v>
+        <v>0.9176606108362401</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.147411658458741</v>
+        <v>6.147044598214459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9474115495091092</v>
+        <v>0.9454645813439931</v>
       </c>
       <c r="D98" t="n">
-        <v>6.265875412499609</v>
+        <v>6.255810734094016</v>
       </c>
       <c r="E98" t="n">
-        <v>1.072721447953419</v>
+        <v>1.115675849661334</v>
       </c>
       <c r="F98" t="n">
-        <v>6.265875412499609</v>
+        <v>6.255810734094016</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9469084005703166</v>
+        <v>0.9628563777183392</v>
       </c>
       <c r="H98" t="n">
-        <v>6.147411658458741</v>
+        <v>6.147044598214459</v>
       </c>
       <c r="I98" t="n">
-        <v>0.8541355296823424</v>
+        <v>0.9737570904686502</v>
       </c>
       <c r="J98" t="n">
-        <v>6.147411658458741</v>
+        <v>6.147044598214459</v>
       </c>
       <c r="K98" t="n">
-        <v>0.905886058678484</v>
+        <v>0.9061880602829969</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.161310146188731</v>
+        <v>6.160939262400237</v>
       </c>
       <c r="C99" t="n">
-        <v>1.020786375643594</v>
+        <v>1.018838439337038</v>
       </c>
       <c r="D99" t="n">
-        <v>6.279484508628269</v>
+        <v>6.269314989822618</v>
       </c>
       <c r="E99" t="n">
-        <v>1.097147764401601</v>
+        <v>1.122444852104728</v>
       </c>
       <c r="F99" t="n">
-        <v>6.279484508628269</v>
+        <v>6.269314989822618</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9264057530658304</v>
+        <v>0.9416286988234862</v>
       </c>
       <c r="H99" t="n">
-        <v>6.161310146188731</v>
+        <v>6.160939262400237</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8932579612426376</v>
+        <v>1.006425890101534</v>
       </c>
       <c r="J99" t="n">
-        <v>6.161310146188731</v>
+        <v>6.160939262400237</v>
       </c>
       <c r="K99" t="n">
-        <v>0.8944624112887271</v>
+        <v>0.8947653473819753</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.175208633918721</v>
+        <v>6.174833926586015</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09262006894834</v>
+        <v>1.090743499076152</v>
       </c>
       <c r="D100" t="n">
-        <v>6.29309360475693</v>
+        <v>6.28281924555122</v>
       </c>
       <c r="E100" t="n">
-        <v>1.120168663549595</v>
+        <v>1.128346786706801</v>
       </c>
       <c r="F100" t="n">
-        <v>6.29309360475693</v>
+        <v>6.28281924555122</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9071692427330991</v>
+        <v>0.9215259392812224</v>
       </c>
       <c r="H100" t="n">
-        <v>6.175208633918721</v>
+        <v>6.174833926586015</v>
       </c>
       <c r="I100" t="n">
-        <v>0.930808236102849</v>
+        <v>1.035533774531091</v>
       </c>
       <c r="J100" t="n">
-        <v>6.175208633918721</v>
+        <v>6.174833926586015</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8831514767894307</v>
+        <v>0.8834522764121845</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.189107121648711</v>
+        <v>6.188728590771794</v>
       </c>
       <c r="C101" t="n">
-        <v>1.161311883782948</v>
+        <v>1.159488460432895</v>
       </c>
       <c r="D101" t="n">
-        <v>6.306702700885589</v>
+        <v>6.296323501279822</v>
       </c>
       <c r="E101" t="n">
-        <v>1.141621889563674</v>
+        <v>1.133741424691173</v>
       </c>
       <c r="F101" t="n">
-        <v>6.306702700885589</v>
+        <v>6.296323501279822</v>
       </c>
       <c r="G101" t="n">
-        <v>0.8896004071676208</v>
+        <v>0.9028867787080107</v>
       </c>
       <c r="H101" t="n">
-        <v>6.189107121648711</v>
+        <v>6.188728590771794</v>
       </c>
       <c r="I101" t="n">
-        <v>0.966780155471771</v>
+        <v>1.061325252305713</v>
       </c>
       <c r="J101" t="n">
-        <v>6.189107121648711</v>
+        <v>6.188728590771794</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8718933281942941</v>
+        <v>0.8721963571141115</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.2030056093787</v>
+        <v>6.202623254957572</v>
       </c>
       <c r="C102" t="n">
-        <v>1.226199356149205</v>
+        <v>1.224447212710354</v>
       </c>
       <c r="D102" t="n">
-        <v>6.32031179701425</v>
+        <v>6.309827757008424</v>
       </c>
       <c r="E102" t="n">
-        <v>1.161634327068196</v>
+        <v>1.138880772190162</v>
       </c>
       <c r="F102" t="n">
-        <v>6.32031179701425</v>
+        <v>6.309827757008424</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8736070583375416</v>
+        <v>0.8857644612504313</v>
       </c>
       <c r="H102" t="n">
-        <v>6.2030056093787</v>
+        <v>6.202623254957572</v>
       </c>
       <c r="I102" t="n">
-        <v>1.000882191860085</v>
+        <v>1.083755685925158</v>
       </c>
       <c r="J102" t="n">
-        <v>6.2030056093787</v>
+        <v>6.202623254957572</v>
       </c>
       <c r="K102" t="n">
-        <v>0.8605765586657906</v>
+        <v>0.8608882151682704</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.21690409710869</v>
+        <v>6.216517919143351</v>
       </c>
       <c r="C103" t="n">
-        <v>1.285454702912295</v>
+        <v>1.283911685842721</v>
       </c>
       <c r="D103" t="n">
-        <v>6.33392089314291</v>
+        <v>6.323332012737026</v>
       </c>
       <c r="E103" t="n">
-        <v>1.179945755383031</v>
+        <v>1.143973540192105</v>
       </c>
       <c r="F103" t="n">
-        <v>6.33392089314291</v>
+        <v>6.323332012737026</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8593425260945303</v>
+        <v>0.8703416816220444</v>
       </c>
       <c r="H103" t="n">
-        <v>6.21690409710869</v>
+        <v>6.216517919143351</v>
       </c>
       <c r="I103" t="n">
-        <v>1.033142536069213</v>
+        <v>1.103059828119913</v>
       </c>
       <c r="J103" t="n">
-        <v>6.21690409710869</v>
+        <v>6.216517919143351</v>
       </c>
       <c r="K103" t="n">
-        <v>0.8491527464552561</v>
+        <v>0.849470855948863</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.230802584838679</v>
+        <v>6.23041258332913</v>
       </c>
       <c r="C104" t="n">
-        <v>1.338606181876518</v>
+        <v>1.337181830280319</v>
       </c>
       <c r="D104" t="n">
-        <v>6.34752998927157</v>
+        <v>6.336836268465628</v>
       </c>
       <c r="E104" t="n">
-        <v>1.196606312361539</v>
+        <v>1.149112970747687</v>
       </c>
       <c r="F104" t="n">
-        <v>6.34752998927157</v>
+        <v>6.336836268465628</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8465164783025773</v>
+        <v>0.8564399927694292</v>
       </c>
       <c r="H104" t="n">
-        <v>6.230802584838679</v>
+        <v>6.23041258332913</v>
       </c>
       <c r="I104" t="n">
-        <v>1.063421154052471</v>
+        <v>1.119518121987463</v>
       </c>
       <c r="J104" t="n">
-        <v>6.230802584838679</v>
+        <v>6.23041258332913</v>
       </c>
       <c r="K104" t="n">
-        <v>0.8374502418299281</v>
+        <v>0.8377831116628073</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.244701072568669</v>
+        <v>6.244307247514908</v>
       </c>
       <c r="C105" t="n">
-        <v>1.384907560911047</v>
+        <v>1.383768086613649</v>
       </c>
       <c r="D105" t="n">
-        <v>6.361139085400231</v>
+        <v>6.35034052419423</v>
       </c>
       <c r="E105" t="n">
-        <v>1.211411600049193</v>
+        <v>1.154394701273562</v>
       </c>
       <c r="F105" t="n">
-        <v>6.361139085400231</v>
+        <v>6.35034052419423</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8350478820213584</v>
+        <v>0.844090128309174</v>
       </c>
       <c r="H105" t="n">
-        <v>6.244701072568669</v>
+        <v>6.244307247514908</v>
       </c>
       <c r="I105" t="n">
-        <v>1.091643589129875</v>
+        <v>1.133383513408398</v>
       </c>
       <c r="J105" t="n">
-        <v>6.244701072568669</v>
+        <v>6.244307247514908</v>
       </c>
       <c r="K105" t="n">
-        <v>0.825340113582115</v>
+        <v>0.8256910215374189</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.258599560298659</v>
+        <v>6.258201911700686</v>
       </c>
       <c r="C106" t="n">
-        <v>1.423078906816737</v>
+        <v>1.422088379638109</v>
       </c>
       <c r="D106" t="n">
-        <v>6.374748181528891</v>
+        <v>6.363844779922832</v>
       </c>
       <c r="E106" t="n">
-        <v>1.224198795815848</v>
+        <v>1.159737226098192</v>
       </c>
       <c r="F106" t="n">
-        <v>6.374748181528891</v>
+        <v>6.363844779922832</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8244315144462578</v>
+        <v>0.8328466900964764</v>
       </c>
       <c r="H106" t="n">
-        <v>6.258599560298659</v>
+        <v>6.258201911700686</v>
       </c>
       <c r="I106" t="n">
-        <v>1.117813222328423</v>
+        <v>1.145083732248863</v>
       </c>
       <c r="J106" t="n">
-        <v>6.258599560298659</v>
+        <v>6.258201911700686</v>
       </c>
       <c r="K106" t="n">
-        <v>0.8126067219563672</v>
+        <v>0.8129809143080232</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.272498048028648</v>
+        <v>6.272096575886465</v>
       </c>
       <c r="C107" t="n">
-        <v>1.453987387086654</v>
+        <v>1.453151336049497</v>
       </c>
       <c r="D107" t="n">
-        <v>6.388357277657551</v>
+        <v>6.377349035651434</v>
       </c>
       <c r="E107" t="n">
-        <v>1.234932892657616</v>
+        <v>1.165007251960997</v>
       </c>
       <c r="F107" t="n">
-        <v>6.388357277657551</v>
+        <v>6.377349035651434</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8143244921648428</v>
+        <v>0.822471819930405</v>
       </c>
       <c r="H107" t="n">
-        <v>6.272498048028648</v>
+        <v>6.272096575886465</v>
       </c>
       <c r="I107" t="n">
-        <v>1.141831982314289</v>
+        <v>1.154983096387355</v>
       </c>
       <c r="J107" t="n">
-        <v>6.272498048028648</v>
+        <v>6.272096575886465</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7991572836236295</v>
+        <v>0.7995603823982296</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.286396535758638</v>
+        <v>6.285991240072244</v>
       </c>
       <c r="C108" t="n">
-        <v>1.4763052449269</v>
+        <v>1.475788519730426</v>
       </c>
       <c r="D108" t="n">
-        <v>6.401966373786212</v>
+        <v>6.390853291380036</v>
       </c>
       <c r="E108" t="n">
-        <v>1.243310294249728</v>
+        <v>1.170038521076592</v>
       </c>
       <c r="F108" t="n">
-        <v>6.401966373786212</v>
+        <v>6.390853291380036</v>
       </c>
       <c r="G108" t="n">
-        <v>0.8042721052434709</v>
+        <v>0.8125020126898929</v>
       </c>
       <c r="H108" t="n">
-        <v>6.286396535758638</v>
+        <v>6.285991240072244</v>
       </c>
       <c r="I108" t="n">
-        <v>1.163711339595361</v>
+        <v>1.163415212990263</v>
       </c>
       <c r="J108" t="n">
-        <v>6.286396535758638</v>
+        <v>6.285991240072244</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7848608546555803</v>
+        <v>0.7852866200874237</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.300295023488628</v>
+        <v>6.299885904258022</v>
       </c>
       <c r="C109" t="n">
-        <v>1.49123565661982</v>
+        <v>1.490871945995001</v>
       </c>
       <c r="D109" t="n">
-        <v>6.415575469914872</v>
+        <v>6.404357547108638</v>
       </c>
       <c r="E109" t="n">
-        <v>1.249291430000098</v>
+        <v>1.174591629426088</v>
       </c>
       <c r="F109" t="n">
-        <v>6.415575469914872</v>
+        <v>6.404357547108638</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7937597802979535</v>
+        <v>0.8024670452298509</v>
       </c>
       <c r="H109" t="n">
-        <v>6.300295023488628</v>
+        <v>6.299885904258022</v>
       </c>
       <c r="I109" t="n">
-        <v>1.183467739714461</v>
+        <v>1.170814320933874</v>
       </c>
       <c r="J109" t="n">
-        <v>6.300295023488628</v>
+        <v>6.299885904258022</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7696271539582077</v>
+        <v>0.7700935839197389</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.314193511218618</v>
+        <v>6.3137805684438</v>
       </c>
       <c r="C110" t="n">
-        <v>1.4990108048814</v>
+        <v>1.498936185693212</v>
       </c>
       <c r="D110" t="n">
-        <v>6.429184566043531</v>
+        <v>6.417861802837241</v>
       </c>
       <c r="E110" t="n">
-        <v>1.252732774373783</v>
+        <v>1.178256080491904</v>
       </c>
       <c r="F110" t="n">
-        <v>6.429184566043531</v>
+        <v>6.417861802837241</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7823924250873766</v>
+        <v>0.7919513100658376</v>
       </c>
       <c r="H110" t="n">
-        <v>6.314193511218618</v>
+        <v>6.3137805684438</v>
       </c>
       <c r="I110" t="n">
-        <v>1.201069542102484</v>
+        <v>1.177351859030016</v>
       </c>
       <c r="J110" t="n">
-        <v>6.314193511218618</v>
+        <v>6.3137805684438</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7534587103147751</v>
+        <v>0.7539499841380568</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.328091998948608</v>
+        <v>6.327675232629579</v>
       </c>
       <c r="C111" t="n">
-        <v>1.499836286791298</v>
+        <v>1.499891884851728</v>
       </c>
       <c r="D111" t="n">
-        <v>6.442793662172193</v>
+        <v>6.431366058565843</v>
       </c>
       <c r="E111" t="n">
-        <v>1.253544838741238</v>
+        <v>1.180877720966277</v>
       </c>
       <c r="F111" t="n">
-        <v>6.442793662172193</v>
+        <v>6.431366058565843</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7697979818953286</v>
+        <v>0.7804413972312992</v>
       </c>
       <c r="H111" t="n">
-        <v>6.328091998948608</v>
+        <v>6.327675232629579</v>
       </c>
       <c r="I111" t="n">
-        <v>1.216524669153531</v>
+        <v>1.18336402944377</v>
       </c>
       <c r="J111" t="n">
-        <v>6.328091998948608</v>
+        <v>6.327675232629579</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7364393818278892</v>
+        <v>0.7369586531128292</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.341990486678597</v>
+        <v>6.341569896815358</v>
       </c>
       <c r="C112" t="n">
-        <v>1.495319437058325</v>
+        <v>1.495494933618526</v>
       </c>
       <c r="D112" t="n">
-        <v>6.456402758300852</v>
+        <v>6.444870314294445</v>
       </c>
       <c r="E112" t="n">
-        <v>1.251625749371076</v>
+        <v>1.181996507294975</v>
       </c>
       <c r="F112" t="n">
-        <v>6.456402758300852</v>
+        <v>6.444870314294445</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7557197522634911</v>
+        <v>0.7677752027749102</v>
       </c>
       <c r="H112" t="n">
-        <v>6.341990486678597</v>
+        <v>6.341569896815358</v>
       </c>
       <c r="I112" t="n">
-        <v>1.229910812751824</v>
+        <v>1.188920188873588</v>
       </c>
       <c r="J112" t="n">
-        <v>6.341990486678597</v>
+        <v>6.341569896815358</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7185969127527448</v>
+        <v>0.7191454763358517</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.355888974408587</v>
+        <v>6.355464561001136</v>
       </c>
       <c r="C113" t="n">
-        <v>1.485360284488383</v>
+        <v>1.485738590426124</v>
       </c>
       <c r="D113" t="n">
-        <v>6.470011854429512</v>
+        <v>6.458374570023047</v>
       </c>
       <c r="E113" t="n">
-        <v>1.247104272778709</v>
+        <v>1.181355179875455</v>
       </c>
       <c r="F113" t="n">
-        <v>6.470011854429512</v>
+        <v>6.458374570023047</v>
       </c>
       <c r="G113" t="n">
-        <v>0.740101223189233</v>
+        <v>0.7535484084241671</v>
       </c>
       <c r="H113" t="n">
-        <v>6.355888974408587</v>
+        <v>6.355464561001136</v>
       </c>
       <c r="I113" t="n">
-        <v>1.241126077834403</v>
+        <v>1.194122695904632</v>
       </c>
       <c r="J113" t="n">
-        <v>6.355888974408587</v>
+        <v>6.355464561001136</v>
       </c>
       <c r="K113" t="n">
-        <v>0.70012097440197</v>
+        <v>0.7006968690209122</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.369787462138577</v>
+        <v>6.369359225186914</v>
       </c>
       <c r="C114" t="n">
-        <v>1.47152794391643</v>
+        <v>1.471991867333042</v>
       </c>
       <c r="D114" t="n">
-        <v>6.483620950558173</v>
+        <v>6.471878825751649</v>
       </c>
       <c r="E114" t="n">
-        <v>1.239936049320972</v>
+        <v>1.178798126570774</v>
       </c>
       <c r="F114" t="n">
-        <v>6.483620950558173</v>
+        <v>6.471878825751649</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7228483660620776</v>
+        <v>0.7378859643960721</v>
       </c>
       <c r="H114" t="n">
-        <v>6.369787462138577</v>
+        <v>6.369359225186914</v>
       </c>
       <c r="I114" t="n">
-        <v>1.250243041578146</v>
+        <v>1.198884787364001</v>
       </c>
       <c r="J114" t="n">
-        <v>6.369787462138577</v>
+        <v>6.369359225186914</v>
       </c>
       <c r="K114" t="n">
-        <v>0.6812096978977152</v>
+        <v>0.6817955865230797</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.383685949868567</v>
+        <v>6.383253889372693</v>
       </c>
       <c r="C115" t="n">
-        <v>1.454335570750492</v>
+        <v>1.454936000877235</v>
       </c>
       <c r="D115" t="n">
-        <v>6.497230046686833</v>
+        <v>6.48538308148025</v>
       </c>
       <c r="E115" t="n">
-        <v>1.230280637315799</v>
+        <v>1.174055726785195</v>
       </c>
       <c r="F115" t="n">
-        <v>6.497230046686833</v>
+        <v>6.48538308148025</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7040648473337864</v>
+        <v>0.7204866903159149</v>
       </c>
       <c r="H115" t="n">
-        <v>6.383685949868567</v>
+        <v>6.383253889372693</v>
       </c>
       <c r="I115" t="n">
-        <v>1.257256015918562</v>
+        <v>1.203126605352516</v>
       </c>
       <c r="J115" t="n">
-        <v>6.383685949868567</v>
+        <v>6.383253889372693</v>
       </c>
       <c r="K115" t="n">
-        <v>0.662028469173108</v>
+        <v>0.6626287020736221</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.397584437598557</v>
+        <v>6.397148553558472</v>
       </c>
       <c r="C116" t="n">
-        <v>1.434331230457844</v>
+        <v>1.434990084573788</v>
       </c>
       <c r="D116" t="n">
-        <v>6.510839142815493</v>
+        <v>6.498887337208852</v>
       </c>
       <c r="E116" t="n">
-        <v>1.218333514637261</v>
+        <v>1.167117647405228</v>
       </c>
       <c r="F116" t="n">
-        <v>6.510839142815493</v>
+        <v>6.498887337208852</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6838474285603816</v>
+        <v>0.7016915063612806</v>
       </c>
       <c r="H116" t="n">
-        <v>6.397584437598557</v>
+        <v>6.397148553558472</v>
       </c>
       <c r="I116" t="n">
-        <v>1.262005398507452</v>
+        <v>1.206602680771424</v>
       </c>
       <c r="J116" t="n">
-        <v>6.397584437598557</v>
+        <v>6.397148553558472</v>
       </c>
       <c r="K116" t="n">
-        <v>0.6428149663305608</v>
+        <v>0.6434121705285447</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.411482925328546</v>
+        <v>6.41104321774425</v>
       </c>
       <c r="C117" t="n">
-        <v>1.41229137155279</v>
+        <v>1.413002904289377</v>
       </c>
       <c r="D117" t="n">
-        <v>6.524448238944154</v>
+        <v>6.512391592937454</v>
       </c>
       <c r="E117" t="n">
-        <v>1.204171355413914</v>
+        <v>1.157969965983496</v>
       </c>
       <c r="F117" t="n">
-        <v>6.524448238944154</v>
+        <v>6.512391592937454</v>
       </c>
       <c r="G117" t="n">
-        <v>0.6625068426151804</v>
+        <v>0.6814614646138195</v>
       </c>
       <c r="H117" t="n">
-        <v>6.411482925328546</v>
+        <v>6.41104321774425</v>
       </c>
       <c r="I117" t="n">
-        <v>1.264637566393574</v>
+        <v>1.209098761610437</v>
       </c>
       <c r="J117" t="n">
-        <v>6.411482925328546</v>
+        <v>6.41104321774425</v>
       </c>
       <c r="K117" t="n">
-        <v>0.6237701347309911</v>
+        <v>0.6243678183800493</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.425381413058536</v>
+        <v>6.424937881930028</v>
       </c>
       <c r="C118" t="n">
-        <v>1.388150172744169</v>
+        <v>1.388949944009891</v>
       </c>
       <c r="D118" t="n">
-        <v>6.538057335072814</v>
+        <v>6.525895848666056</v>
       </c>
       <c r="E118" t="n">
-        <v>1.188224451090433</v>
+        <v>1.146610988835264</v>
       </c>
       <c r="F118" t="n">
-        <v>6.538057335072814</v>
+        <v>6.525895848666056</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6401597219105594</v>
+        <v>0.660182101272866</v>
       </c>
       <c r="H118" t="n">
-        <v>6.425381413058536</v>
+        <v>6.424937881930028</v>
       </c>
       <c r="I118" t="n">
-        <v>1.26479273133516</v>
+        <v>1.210325081460822</v>
       </c>
       <c r="J118" t="n">
-        <v>6.425381413058536</v>
+        <v>6.424937881930028</v>
       </c>
       <c r="K118" t="n">
-        <v>0.6049811712562977</v>
+        <v>0.6055781033448717</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.439279900788526</v>
+        <v>6.438832546115806</v>
       </c>
       <c r="C119" t="n">
-        <v>1.362416627378492</v>
+        <v>1.363261761100841</v>
       </c>
       <c r="D119" t="n">
-        <v>6.551666431201474</v>
+        <v>6.539400104394658</v>
       </c>
       <c r="E119" t="n">
-        <v>1.17063698640102</v>
+        <v>1.133378831461094</v>
       </c>
       <c r="F119" t="n">
-        <v>6.551666431201474</v>
+        <v>6.539400104394658</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6171100293064733</v>
+        <v>0.6379254694767718</v>
       </c>
       <c r="H119" t="n">
-        <v>6.439279900788526</v>
+        <v>6.438832546115806</v>
       </c>
       <c r="I119" t="n">
-        <v>1.262727722313903</v>
+        <v>1.209981654868159</v>
       </c>
       <c r="J119" t="n">
-        <v>6.439279900788526</v>
+        <v>6.438832546115806</v>
       </c>
       <c r="K119" t="n">
-        <v>0.5866569641614119</v>
+        <v>0.5872362288660412</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.453178388518515</v>
+        <v>6.452727210301585</v>
       </c>
       <c r="C120" t="n">
-        <v>1.334978271949361</v>
+        <v>1.335908544805485</v>
       </c>
       <c r="D120" t="n">
-        <v>6.565275527330135</v>
+        <v>6.55290436012326</v>
       </c>
       <c r="E120" t="n">
-        <v>1.15166966804684</v>
+        <v>1.118279998961327</v>
       </c>
       <c r="F120" t="n">
-        <v>6.565275527330135</v>
+        <v>6.55290436012326</v>
       </c>
       <c r="G120" t="n">
-        <v>0.593453366444933</v>
+        <v>0.6149772977673351</v>
       </c>
       <c r="H120" t="n">
-        <v>6.453178388518515</v>
+        <v>6.452727210301585</v>
       </c>
       <c r="I120" t="n">
-        <v>1.258049889803832</v>
+        <v>1.20789654918694</v>
       </c>
       <c r="J120" t="n">
-        <v>6.453178388518515</v>
+        <v>6.452727210301585</v>
       </c>
       <c r="K120" t="n">
-        <v>0.5687366911225173</v>
+        <v>0.5693170408246172</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.467076876248505</v>
+        <v>6.466621874487363</v>
       </c>
       <c r="C121" t="n">
-        <v>1.305789422013024</v>
+        <v>1.306768226028618</v>
       </c>
       <c r="D121" t="n">
-        <v>6.578884623458794</v>
+        <v>6.566408615851862</v>
       </c>
       <c r="E121" t="n">
-        <v>1.131705388571764</v>
+        <v>1.101687771101711</v>
       </c>
       <c r="F121" t="n">
-        <v>6.578884623458794</v>
+        <v>6.566408615851862</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5694176419237091</v>
+        <v>0.5914644904666276</v>
       </c>
       <c r="H121" t="n">
-        <v>6.467076876248505</v>
+        <v>6.466621874487363</v>
       </c>
       <c r="I121" t="n">
-        <v>1.251023179377487</v>
+        <v>1.203760207493549</v>
       </c>
       <c r="J121" t="n">
-        <v>6.467076876248505</v>
+        <v>6.466621874487363</v>
       </c>
       <c r="K121" t="n">
-        <v>0.5512886466268464</v>
+        <v>0.5518513070174277</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.480975363978494</v>
+        <v>6.480516538673142</v>
       </c>
       <c r="C122" t="n">
-        <v>1.27497323469768</v>
+        <v>1.276009654470455</v>
       </c>
       <c r="D122" t="n">
-        <v>6.592493719587455</v>
+        <v>6.579912871580464</v>
       </c>
       <c r="E122" t="n">
-        <v>1.110791678803428</v>
+        <v>1.083824598628248</v>
       </c>
       <c r="F122" t="n">
-        <v>6.592493719587455</v>
+        <v>6.579912871580464</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5451441835265048</v>
+        <v>0.5675967664613556</v>
       </c>
       <c r="H122" t="n">
-        <v>6.480975363978494</v>
+        <v>6.480516538673142</v>
       </c>
       <c r="I122" t="n">
-        <v>1.241412176418558</v>
+        <v>1.197602204664468</v>
       </c>
       <c r="J122" t="n">
-        <v>6.480975363978494</v>
+        <v>6.480516538673142</v>
       </c>
       <c r="K122" t="n">
-        <v>0.5342535233567406</v>
+        <v>0.5348130103129507</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.494873851708484</v>
+        <v>6.49441120285892</v>
       </c>
       <c r="C123" t="n">
-        <v>1.242156342699947</v>
+        <v>1.243278276981276</v>
       </c>
       <c r="D123" t="n">
-        <v>6.606102815716115</v>
+        <v>6.593417127309066</v>
       </c>
       <c r="E123" t="n">
-        <v>1.089271216123915</v>
+        <v>1.064862513113629</v>
       </c>
       <c r="F123" t="n">
-        <v>6.606102815716115</v>
+        <v>6.593417127309066</v>
       </c>
       <c r="G123" t="n">
-        <v>0.5206839513459258</v>
+        <v>0.5434870734968701</v>
       </c>
       <c r="H123" t="n">
-        <v>6.494873851708484</v>
+        <v>6.49441120285892</v>
       </c>
       <c r="I123" t="n">
-        <v>1.229417148060857</v>
+        <v>1.189220499025194</v>
       </c>
       <c r="J123" t="n">
-        <v>6.494873851708484</v>
+        <v>6.49441120285892</v>
       </c>
       <c r="K123" t="n">
-        <v>0.5175472755860505</v>
+        <v>0.5180976397843408</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.508772339438474</v>
+        <v>6.508305867044699</v>
       </c>
       <c r="C124" t="n">
-        <v>1.207754056116385</v>
+        <v>1.208925431394921</v>
       </c>
       <c r="D124" t="n">
-        <v>6.619711911844775</v>
+        <v>6.606921383037668</v>
       </c>
       <c r="E124" t="n">
-        <v>1.067331622127455</v>
+        <v>1.045174973229601</v>
       </c>
       <c r="F124" t="n">
-        <v>6.619711911844775</v>
+        <v>6.606921383037668</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4961679762946059</v>
+        <v>0.5192109149207285</v>
       </c>
       <c r="H124" t="n">
-        <v>6.508772339438474</v>
+        <v>6.508305867044699</v>
       </c>
       <c r="I124" t="n">
-        <v>1.215089518519063</v>
+        <v>1.178785810255505</v>
       </c>
       <c r="J124" t="n">
-        <v>6.508772339438474</v>
+        <v>6.508305867044699</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5010731965969414</v>
+        <v>0.5016284893496873</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.522670827168464</v>
+        <v>6.522200531230478</v>
       </c>
       <c r="C125" t="n">
-        <v>1.171752932984968</v>
+        <v>1.173002360517654</v>
       </c>
       <c r="D125" t="n">
-        <v>6.633321007973436</v>
+        <v>6.62042563876627</v>
       </c>
       <c r="E125" t="n">
-        <v>1.04496435520874</v>
+        <v>1.024719711311662</v>
       </c>
       <c r="F125" t="n">
-        <v>6.633321007973436</v>
+        <v>6.62042563876627</v>
       </c>
       <c r="G125" t="n">
-        <v>0.4716705397608436</v>
+        <v>0.4948817639908715</v>
       </c>
       <c r="H125" t="n">
-        <v>6.522670827168464</v>
+        <v>6.522200531230478</v>
       </c>
       <c r="I125" t="n">
-        <v>1.198567809262679</v>
+        <v>1.166276377599197</v>
       </c>
       <c r="J125" t="n">
-        <v>6.522670827168464</v>
+        <v>6.522200531230478</v>
       </c>
       <c r="K125" t="n">
-        <v>0.4847389161670011</v>
+        <v>0.4852898808612084</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.536569314898454</v>
+        <v>6.536095195416256</v>
       </c>
       <c r="C126" t="n">
-        <v>1.134500632445967</v>
+        <v>1.135785141515197</v>
       </c>
       <c r="D126" t="n">
-        <v>6.646930104102096</v>
+        <v>6.633929894494872</v>
       </c>
       <c r="E126" t="n">
-        <v>1.022415929908709</v>
+        <v>1.003764114048656</v>
       </c>
       <c r="F126" t="n">
-        <v>6.646930104102096</v>
+        <v>6.633929894494872</v>
       </c>
       <c r="G126" t="n">
-        <v>0.447270326742571</v>
+        <v>0.4705796727476146</v>
       </c>
       <c r="H126" t="n">
-        <v>6.536569314898454</v>
+        <v>6.536095195416256</v>
       </c>
       <c r="I126" t="n">
-        <v>1.180076994337996</v>
+        <v>1.151890553224775</v>
       </c>
       <c r="J126" t="n">
-        <v>6.536569314898454</v>
+        <v>6.536095195416256</v>
       </c>
       <c r="K126" t="n">
-        <v>0.4684200975467674</v>
+        <v>0.4689773538723179</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.550467802628443</v>
+        <v>6.549989859602034</v>
       </c>
       <c r="C127" t="n">
-        <v>1.09648084302947</v>
+        <v>1.097798188159209</v>
       </c>
       <c r="D127" t="n">
-        <v>6.660539200230756</v>
+        <v>6.647434150223474</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9996905183773001</v>
+        <v>0.982464415926755</v>
       </c>
       <c r="F127" t="n">
-        <v>6.660539200230756</v>
+        <v>6.647434150223474</v>
       </c>
       <c r="G127" t="n">
-        <v>0.423035751242582</v>
+        <v>0.44636483308895</v>
       </c>
       <c r="H127" t="n">
-        <v>6.550467802628443</v>
+        <v>6.549989859602034</v>
       </c>
       <c r="I127" t="n">
-        <v>1.159904349397907</v>
+        <v>1.135744876042678</v>
       </c>
       <c r="J127" t="n">
-        <v>6.550467802628443</v>
+        <v>6.549989859602034</v>
       </c>
       <c r="K127" t="n">
-        <v>0.4520083006334397</v>
+        <v>0.4525795986181767</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.564366290358434</v>
+        <v>6.563884523787813</v>
       </c>
       <c r="C128" t="n">
-        <v>1.058152215664542</v>
+        <v>1.059478901824912</v>
       </c>
       <c r="D128" t="n">
-        <v>6.674148296359416</v>
+        <v>6.660938405952076</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9767857699140974</v>
+        <v>0.9607020726969822</v>
       </c>
       <c r="F128" t="n">
-        <v>6.674148296359416</v>
+        <v>6.660938405952076</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3991665528340751</v>
+        <v>0.4223327077432997</v>
       </c>
       <c r="H128" t="n">
-        <v>6.564366290358434</v>
+        <v>6.563884523787813</v>
       </c>
       <c r="I128" t="n">
-        <v>1.138189483595756</v>
+        <v>1.118045569337754</v>
       </c>
       <c r="J128" t="n">
-        <v>6.564366290358434</v>
+        <v>6.563884523787813</v>
       </c>
       <c r="K128" t="n">
-        <v>0.4354260916364518</v>
+        <v>0.4360051925437533</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.578264778088423</v>
+        <v>6.577779187973592</v>
       </c>
       <c r="C129" t="n">
-        <v>1.020106502602195</v>
+        <v>1.021430546198834</v>
       </c>
       <c r="D129" t="n">
-        <v>6.687757392488076</v>
+        <v>6.674442661680678</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9537742059040033</v>
+        <v>0.9385933330500137</v>
       </c>
       <c r="F129" t="n">
-        <v>6.687757392488076</v>
+        <v>6.674442661680678</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3757171809667776</v>
+        <v>0.3986545753918865</v>
       </c>
       <c r="H129" t="n">
-        <v>6.578264778088423</v>
+        <v>6.577779187973592</v>
       </c>
       <c r="I129" t="n">
-        <v>1.115440209227799</v>
+        <v>1.098961950871292</v>
       </c>
       <c r="J129" t="n">
-        <v>6.578264778088423</v>
+        <v>6.577779187973592</v>
       </c>
       <c r="K129" t="n">
-        <v>0.4186982676339392</v>
+        <v>0.4192831255493499</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.592163265818413</v>
+        <v>6.59167385215937</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9829682322984157</v>
+        <v>0.9842470136231311</v>
       </c>
       <c r="D130" t="n">
-        <v>6.701366488616737</v>
+        <v>6.68794691740928</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9306985217170188</v>
+        <v>0.9161475755662164</v>
       </c>
       <c r="F130" t="n">
-        <v>6.701366488616737</v>
+        <v>6.68794691740928</v>
       </c>
       <c r="G130" t="n">
-        <v>0.3528316640973226</v>
+        <v>0.3753969446580119</v>
       </c>
       <c r="H130" t="n">
-        <v>6.592163265818413</v>
+        <v>6.59167385215937</v>
       </c>
       <c r="I130" t="n">
-        <v>1.09168885306414</v>
+        <v>1.078650306894328</v>
       </c>
       <c r="J130" t="n">
-        <v>6.592163265818413</v>
+        <v>6.59167385215937</v>
       </c>
       <c r="K130" t="n">
-        <v>0.401758893656692</v>
+        <v>0.4023581330931892</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.606061753548403</v>
+        <v>6.605568516345148</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9471884083352891</v>
+        <v>0.9484368114915037</v>
       </c>
       <c r="D131" t="n">
-        <v>6.714975584745397</v>
+        <v>6.701451173137882</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9074509199963293</v>
+        <v>0.8932496804205289</v>
       </c>
       <c r="F131" t="n">
-        <v>6.714975584745397</v>
+        <v>6.701451173137882</v>
       </c>
       <c r="G131" t="n">
-        <v>0.3306188700828732</v>
+        <v>0.3526904043542265</v>
       </c>
       <c r="H131" t="n">
-        <v>6.606061753548403</v>
+        <v>6.605568516345148</v>
       </c>
       <c r="I131" t="n">
-        <v>1.067431615138892</v>
+        <v>1.057276579894019</v>
       </c>
       <c r="J131" t="n">
-        <v>6.606061753548403</v>
+        <v>6.605568516345148</v>
       </c>
       <c r="K131" t="n">
-        <v>0.3845810544075265</v>
+        <v>0.3851980577861658</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.619960241278392</v>
+        <v>6.619463180530927</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9130694366248271</v>
+        <v>0.9142302787972162</v>
       </c>
       <c r="D132" t="n">
-        <v>6.728584680874057</v>
+        <v>6.714955428866484</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8840814879101088</v>
+        <v>0.8699492959489343</v>
       </c>
       <c r="F132" t="n">
-        <v>6.728584680874057</v>
+        <v>6.714955428866484</v>
       </c>
       <c r="G132" t="n">
-        <v>0.3092389325412042</v>
+        <v>0.3306509316497925</v>
       </c>
       <c r="H132" t="n">
-        <v>6.619960241278392</v>
+        <v>6.619463180530927</v>
       </c>
       <c r="I132" t="n">
-        <v>1.042766722491663</v>
+        <v>1.034974848904557</v>
       </c>
       <c r="J132" t="n">
-        <v>6.619960241278392</v>
+        <v>6.619463180530927</v>
       </c>
       <c r="K132" t="n">
-        <v>0.3672766286727759</v>
+        <v>0.36788805440287</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.633858729008383</v>
+        <v>6.633357844716706</v>
       </c>
       <c r="C133" t="n">
-        <v>0.881103556658384</v>
+        <v>0.8822205923803489</v>
       </c>
       <c r="D133" t="n">
-        <v>6.742193777002718</v>
+        <v>6.728459684595086</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8606644330983716</v>
+        <v>0.8461822668027686</v>
       </c>
       <c r="F133" t="n">
-        <v>6.742193777002718</v>
+        <v>6.728459684595086</v>
       </c>
       <c r="G133" t="n">
-        <v>0.288727406395333</v>
+        <v>0.3094319963562501</v>
       </c>
       <c r="H133" t="n">
-        <v>6.633858729008383</v>
+        <v>6.633357844716706</v>
       </c>
       <c r="I133" t="n">
-        <v>1.017987825447754</v>
+        <v>1.011929380341623</v>
       </c>
       <c r="J133" t="n">
-        <v>6.633858729008383</v>
+        <v>6.633357844716706</v>
       </c>
       <c r="K133" t="n">
-        <v>0.3499226855556991</v>
+        <v>0.3505541174314191</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.647757216738372</v>
+        <v>6.647252508902484</v>
       </c>
       <c r="C134" t="n">
-        <v>0.85101719938386</v>
+        <v>0.8520899887642426</v>
       </c>
       <c r="D134" t="n">
-        <v>6.755802873131378</v>
+        <v>6.741963940323688</v>
       </c>
       <c r="E134" t="n">
-        <v>0.836980955186454</v>
+        <v>0.8219290281191521</v>
       </c>
       <c r="F134" t="n">
-        <v>6.755802873131378</v>
+        <v>6.741963940323688</v>
       </c>
       <c r="G134" t="n">
-        <v>0.2691772409568825</v>
+        <v>0.2890659928004023</v>
       </c>
       <c r="H134" t="n">
-        <v>6.647757216738372</v>
+        <v>6.647252508902484</v>
       </c>
       <c r="I134" t="n">
-        <v>0.993262618350628</v>
+        <v>0.9882208648359824</v>
       </c>
       <c r="J134" t="n">
-        <v>6.647757216738372</v>
+        <v>6.647252508902484</v>
       </c>
       <c r="K134" t="n">
-        <v>0.3325319325832674</v>
+        <v>0.3331581551195658</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.661655704468362</v>
+        <v>6.661147173088262</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8230052672472882</v>
+        <v>0.8239884899353686</v>
       </c>
       <c r="D135" t="n">
-        <v>6.769411969260038</v>
+        <v>6.75546819605229</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8132419190315177</v>
+        <v>0.7972238874963765</v>
       </c>
       <c r="F135" t="n">
-        <v>6.769411969260038</v>
+        <v>6.75546819605229</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2506470986068271</v>
+        <v>0.2696480294138126</v>
       </c>
       <c r="H135" t="n">
-        <v>6.661655704468362</v>
+        <v>6.661147173088262</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9687145413283322</v>
+        <v>0.9640804307146243</v>
       </c>
       <c r="J135" t="n">
-        <v>6.661655704468362</v>
+        <v>6.661147173088262</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3152810596331789</v>
+        <v>0.3159085200197563</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.675554192198351</v>
+        <v>6.675041837274041</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7966928836440973</v>
+        <v>0.7976415356396596</v>
       </c>
       <c r="D136" t="n">
-        <v>6.783021065388699</v>
+        <v>6.768972451780892</v>
       </c>
       <c r="E136" t="n">
-        <v>0.789293926072634</v>
+        <v>0.77201162238778</v>
       </c>
       <c r="F136" t="n">
-        <v>6.783021065388699</v>
+        <v>6.768972451780892</v>
       </c>
       <c r="G136" t="n">
-        <v>0.2330914289233268</v>
+        <v>0.2512268176865483</v>
       </c>
       <c r="H136" t="n">
-        <v>6.675554192198351</v>
+        <v>6.675041837274041</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9444447502090552</v>
+        <v>0.939541737385476</v>
       </c>
       <c r="J136" t="n">
-        <v>6.675554192198351</v>
+        <v>6.675041837274041</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2981898753359848</v>
+        <v>0.2988083389579133</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.689452679928341</v>
+        <v>6.688936501459819</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7717763722526788</v>
+        <v>0.7726659102066789</v>
       </c>
       <c r="D137" t="n">
-        <v>6.796630161517358</v>
+        <v>6.782476707509494</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7651552443389309</v>
+        <v>0.7463709209394133</v>
       </c>
       <c r="F137" t="n">
-        <v>6.796630161517358</v>
+        <v>6.782476707509494</v>
       </c>
       <c r="G137" t="n">
-        <v>0.2165130850942463</v>
+        <v>0.2337798200732277</v>
       </c>
       <c r="H137" t="n">
-        <v>6.689452679928341</v>
+        <v>6.688936501459819</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9204969308684454</v>
+        <v>0.914796577639875</v>
       </c>
       <c r="J137" t="n">
-        <v>6.689452679928341</v>
+        <v>6.688936501459819</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2814659876984155</v>
+        <v>0.28207868332399</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.703351167658331</v>
+        <v>6.702831165645597</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7480555251846086</v>
+        <v>0.7489275429380975</v>
       </c>
       <c r="D138" t="n">
-        <v>6.810239257646018</v>
+        <v>6.795980963238096</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7408742166899919</v>
+        <v>0.7203347669609688</v>
       </c>
       <c r="F138" t="n">
-        <v>6.810239257646018</v>
+        <v>6.795980963238096</v>
       </c>
       <c r="G138" t="n">
-        <v>0.2009072049390903</v>
+        <v>0.2172801127216246</v>
       </c>
       <c r="H138" t="n">
-        <v>6.703351167658331</v>
+        <v>6.702831165645597</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8968340189746381</v>
+        <v>0.8898852832495722</v>
       </c>
       <c r="J138" t="n">
-        <v>6.703351167658331</v>
+        <v>6.702831165645597</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2651211250583337</v>
+        <v>0.2657267898239915</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.71724965538832</v>
+        <v>6.716725829831376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7250725125620524</v>
+        <v>0.7259320534255141</v>
       </c>
       <c r="D139" t="n">
-        <v>6.823848353774679</v>
+        <v>6.809485218966698</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7163682543346482</v>
+        <v>0.6939168327548781</v>
       </c>
       <c r="F139" t="n">
-        <v>6.823848353774679</v>
+        <v>6.809485218966698</v>
       </c>
       <c r="G139" t="n">
-        <v>0.186218008480159</v>
+        <v>0.2017479959010331</v>
       </c>
       <c r="H139" t="n">
-        <v>6.71724965538832</v>
+        <v>6.716725829831376</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8735083930284092</v>
+        <v>0.8648559174576277</v>
       </c>
       <c r="J139" t="n">
-        <v>6.71724965538832</v>
+        <v>6.716725829831376</v>
       </c>
       <c r="K139" t="n">
-        <v>0.249262289674665</v>
+        <v>0.2498494873406248</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.73114814311831</v>
+        <v>6.730620494017154</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7026976044421723</v>
+        <v>0.703537016123376</v>
       </c>
       <c r="D140" t="n">
-        <v>6.837457449903339</v>
+        <v>6.8229894746953</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6917200776768705</v>
+        <v>0.6671940440491043</v>
       </c>
       <c r="F140" t="n">
-        <v>6.837457449903339</v>
+        <v>6.8229894746953</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1723451042174129</v>
+        <v>0.1871186994992173</v>
       </c>
       <c r="H140" t="n">
-        <v>6.73114814311831</v>
+        <v>6.730620494017154</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8502525856975464</v>
+        <v>0.8397910524840139</v>
       </c>
       <c r="J140" t="n">
-        <v>6.73114814311831</v>
+        <v>6.730620494017154</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2340126203318576</v>
+        <v>0.2345830148676379</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.7450466308483</v>
+        <v>6.744515158202933</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6807258348286029</v>
+        <v>0.6815609887683202</v>
       </c>
       <c r="D141" t="n">
-        <v>6.851066546031999</v>
+        <v>6.836493730423902</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6669105510420952</v>
+        <v>0.6402033253866056</v>
       </c>
       <c r="F141" t="n">
-        <v>6.851066546031999</v>
+        <v>6.836493730423902</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1592732782120275</v>
+        <v>0.1733041338337277</v>
       </c>
       <c r="H141" t="n">
-        <v>6.7450466308483</v>
+        <v>6.744515158202933</v>
       </c>
       <c r="I141" t="n">
-        <v>0.8271686547068337</v>
+        <v>0.8145605980655298</v>
       </c>
       <c r="J141" t="n">
-        <v>6.7450466308483</v>
+        <v>6.744515158202933</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2193559821375518</v>
+        <v>0.2199067075988486</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.75894511857829</v>
+        <v>6.758409822388711</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6591328284715394</v>
+        <v>0.6599514104464644</v>
       </c>
       <c r="D142" t="n">
-        <v>6.86467564216066</v>
+        <v>6.849997986152504</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6420063163860023</v>
+        <v>0.6130228938028013</v>
       </c>
       <c r="F142" t="n">
-        <v>6.86467564216066</v>
+        <v>6.849997986152504</v>
       </c>
       <c r="G142" t="n">
-        <v>0.146946299204661</v>
+        <v>0.160262131951858</v>
       </c>
       <c r="H142" t="n">
-        <v>6.75894511857829</v>
+        <v>6.758409822388711</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8038971216687356</v>
+        <v>0.7892137406986355</v>
       </c>
       <c r="J142" t="n">
-        <v>6.75894511857829</v>
+        <v>6.758409822388711</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2053336126024308</v>
+        <v>0.2058611926065648</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.77284360630828</v>
+        <v>6.77230448657449</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6380254295673268</v>
+        <v>0.6388348795149115</v>
       </c>
       <c r="D143" t="n">
-        <v>6.87828473828932</v>
+        <v>6.863502241881106</v>
       </c>
       <c r="E143" t="n">
-        <v>0.617029417692012</v>
+        <v>0.5856903815198043</v>
       </c>
       <c r="F143" t="n">
-        <v>6.87828473828932</v>
+        <v>6.863502241881106</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1352750921059259</v>
+        <v>0.1479824400228116</v>
       </c>
       <c r="H143" t="n">
-        <v>6.77284360630828</v>
+        <v>6.77230448657449</v>
       </c>
       <c r="I143" t="n">
-        <v>0.7804590149016114</v>
+        <v>0.7635574499396127</v>
       </c>
       <c r="J143" t="n">
-        <v>6.77284360630828</v>
+        <v>6.77230448657449</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1919625103014754</v>
+        <v>0.1924715775878509</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.786742094038269</v>
+        <v>6.786199150760268</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6174802743067881</v>
+        <v>0.6182766009741885</v>
       </c>
       <c r="D144" t="n">
-        <v>6.891893834417981</v>
+        <v>6.877006497609708</v>
       </c>
       <c r="E144" t="n">
-        <v>0.592051351587058</v>
+        <v>0.5583556116193183</v>
       </c>
       <c r="F144" t="n">
-        <v>6.891893834417981</v>
+        <v>6.877006497609708</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1242517455987816</v>
+        <v>0.1363423769929006</v>
       </c>
       <c r="H144" t="n">
-        <v>6.786742094038269</v>
+        <v>6.786199150760268</v>
       </c>
       <c r="I144" t="n">
-        <v>0.7566058287785772</v>
+        <v>0.7375703956346046</v>
       </c>
       <c r="J144" t="n">
-        <v>6.786742094038269</v>
+        <v>6.786199150760268</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1791858965699316</v>
+        <v>0.1796754434800222</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.800640581768259</v>
+        <v>6.800093814946047</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5978360041011813</v>
+        <v>0.5985868390964483</v>
       </c>
       <c r="D145" t="n">
-        <v>6.905502930546641</v>
+        <v>6.89051075333831</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5671413505850227</v>
+        <v>0.5310197263099187</v>
       </c>
       <c r="F145" t="n">
-        <v>6.905502930546641</v>
+        <v>6.89051075333831</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1138115127184168</v>
+        <v>0.1253407997721352</v>
       </c>
       <c r="H145" t="n">
-        <v>6.800640581768259</v>
+        <v>6.800093814946047</v>
       </c>
       <c r="I145" t="n">
-        <v>0.7322727160174494</v>
+        <v>0.7110811457310128</v>
       </c>
       <c r="J145" t="n">
-        <v>6.800640581768259</v>
+        <v>6.800093814946047</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1669573943177559</v>
+        <v>0.1674282347069269</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.814539069498249</v>
+        <v>6.813988479131826</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5791816976801313</v>
+        <v>0.5799057686054242</v>
       </c>
       <c r="D146" t="n">
-        <v>6.9191120266753</v>
+        <v>6.904015009066912</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5423414545062876</v>
+        <v>0.5038742919564623</v>
       </c>
       <c r="F146" t="n">
-        <v>6.9191120266753</v>
+        <v>6.904015009066912</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1039226530175845</v>
+        <v>0.1149225172751771</v>
       </c>
       <c r="H146" t="n">
-        <v>6.814539069498249</v>
+        <v>6.813988479131826</v>
       </c>
       <c r="I146" t="n">
-        <v>0.7073411635920385</v>
+        <v>0.684049225952693</v>
       </c>
       <c r="J146" t="n">
-        <v>6.814539069498249</v>
+        <v>6.813988479131826</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1552586495972875</v>
+        <v>0.1557113590301784</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.828437557228238</v>
+        <v>6.827883143317604</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5617399715059781</v>
+        <v>0.562396174396976</v>
       </c>
       <c r="D147" t="n">
-        <v>6.932721122803961</v>
+        <v>6.917519264795514</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5177681166011404</v>
+        <v>0.4770209630434386</v>
       </c>
       <c r="F147" t="n">
-        <v>6.932721122803961</v>
+        <v>6.917519264795514</v>
       </c>
       <c r="G147" t="n">
-        <v>0.09454034789154087</v>
+        <v>0.1050547930368319</v>
       </c>
       <c r="H147" t="n">
-        <v>6.828437557228238</v>
+        <v>6.827883143317604</v>
       </c>
       <c r="I147" t="n">
-        <v>0.6817839340166213</v>
+        <v>0.6564081091938462</v>
       </c>
       <c r="J147" t="n">
-        <v>6.828437557228238</v>
+        <v>6.827883143317604</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1439870184657724</v>
+        <v>0.1444287498514956</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6.842336044958229</v>
+        <v>6.841777807503382</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5456688464009006</v>
+        <v>0.5462915180541875</v>
       </c>
       <c r="D148" t="n">
-        <v>6.946330218932621</v>
+        <v>6.931023520524116</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4934433692510218</v>
+        <v>0.4505372082311949</v>
       </c>
       <c r="F148" t="n">
-        <v>6.946330218932621</v>
+        <v>6.931023520524116</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0856692577949057</v>
+        <v>0.09568682489760177</v>
       </c>
       <c r="H148" t="n">
-        <v>6.842336044958229</v>
+        <v>6.841777807503382</v>
       </c>
       <c r="I148" t="n">
-        <v>0.6556178647533399</v>
+        <v>0.628140945708962</v>
       </c>
       <c r="J148" t="n">
-        <v>6.842336044958229</v>
+        <v>6.841777807503382</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1331157299086642</v>
+        <v>0.1335427156037654</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.856234532688218</v>
+        <v>6.855672471689161</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5307937447012855</v>
+        <v>0.5313838345131352</v>
       </c>
       <c r="D149" t="n">
-        <v>6.959939315061281</v>
+        <v>6.944527776252718</v>
       </c>
       <c r="E149" t="n">
-        <v>0.469389210070853</v>
+        <v>0.4246719341679106</v>
       </c>
       <c r="F149" t="n">
-        <v>6.959939315061281</v>
+        <v>6.944527776252718</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07727708752175505</v>
+        <v>0.08681590120848319</v>
       </c>
       <c r="H149" t="n">
-        <v>6.856234532688218</v>
+        <v>6.855672471689161</v>
       </c>
       <c r="I149" t="n">
-        <v>0.6289051085747595</v>
+        <v>0.5993167224705046</v>
       </c>
       <c r="J149" t="n">
-        <v>6.856234532688218</v>
+        <v>6.855672471689161</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1225722590932917</v>
+        <v>0.1229915888548425</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.870133020418208</v>
+        <v>6.86956713587494</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5171954629232748</v>
+        <v>0.5177276013243574</v>
       </c>
       <c r="D150" t="n">
-        <v>6.973548411189942</v>
+        <v>6.95803203198132</v>
       </c>
       <c r="E150" t="n">
-        <v>0.44571766943991</v>
+        <v>0.3994245299513181</v>
       </c>
       <c r="F150" t="n">
-        <v>6.973548411189942</v>
+        <v>6.95803203198132</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06933759451662681</v>
+        <v>0.07842427283901</v>
       </c>
       <c r="H150" t="n">
-        <v>6.870133020418208</v>
+        <v>6.86956713587494</v>
       </c>
       <c r="I150" t="n">
-        <v>0.6017564743094493</v>
+        <v>0.5700083064919438</v>
       </c>
       <c r="J150" t="n">
-        <v>6.870133020418208</v>
+        <v>6.86956713587494</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1123402813495358</v>
+        <v>0.1127477434355776</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.884031508148198</v>
+        <v>6.883461800060718</v>
       </c>
       <c r="C151" t="n">
-        <v>0.504414688099787</v>
+        <v>0.5049290860791664</v>
       </c>
       <c r="D151" t="n">
-        <v>6.987157507318602</v>
+        <v>6.971536287709922</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4223774895897273</v>
+        <v>0.3749375245015835</v>
       </c>
       <c r="F151" t="n">
-        <v>6.987157507318602</v>
+        <v>6.971536287709922</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06185411047535713</v>
+        <v>0.07048156708768176</v>
       </c>
       <c r="H151" t="n">
-        <v>6.884031508148198</v>
+        <v>6.883461800060718</v>
       </c>
       <c r="I151" t="n">
-        <v>0.5743472683433338</v>
+        <v>0.5403735591425934</v>
       </c>
       <c r="J151" t="n">
-        <v>6.884031508148198</v>
+        <v>6.883461800060718</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1024015682929791</v>
+        <v>0.1028033348982394</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6.897929995878187</v>
+        <v>6.897356464246496</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4921365578234013</v>
+        <v>0.4926386268040562</v>
       </c>
       <c r="D152" t="n">
-        <v>7.000766603447262</v>
+        <v>6.985040543438524</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3994186840973697</v>
+        <v>0.3513460371115584</v>
       </c>
       <c r="F152" t="n">
-        <v>7.000766603447262</v>
+        <v>6.985040543438524</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05483292454019706</v>
+        <v>0.0629944513387464</v>
       </c>
       <c r="H152" t="n">
-        <v>6.897929995878187</v>
+        <v>6.897356464246496</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5468444720297841</v>
+        <v>0.510641245667805</v>
       </c>
       <c r="J152" t="n">
-        <v>6.897929995878187</v>
+        <v>6.897356464246496</v>
       </c>
       <c r="K152" t="n">
-        <v>0.09274628881758719</v>
+        <v>0.09313872694425214</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6.911828483608177</v>
+        <v>6.911251128432275</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4798941013721068</v>
+        <v>0.4804069869560365</v>
       </c>
       <c r="D153" t="n">
-        <v>7.014375699575922</v>
+        <v>6.998544799167126</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3768454967325472</v>
+        <v>0.328589722781206</v>
       </c>
       <c r="F153" t="n">
-        <v>7.014375699575922</v>
+        <v>6.998544799167126</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04827594817968317</v>
+        <v>0.05594080086742226</v>
       </c>
       <c r="H153" t="n">
-        <v>6.911828483608177</v>
+        <v>6.911251128432275</v>
       </c>
       <c r="I153" t="n">
-        <v>0.5194586318936661</v>
+        <v>0.4809560771465569</v>
       </c>
       <c r="J153" t="n">
-        <v>6.911828483608177</v>
+        <v>6.911251128432275</v>
       </c>
       <c r="K153" t="n">
-        <v>0.08343480201748237</v>
+        <v>0.08381407761870219</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.925726971338166</v>
+        <v>6.925145792618054</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4672386123883334</v>
+        <v>0.467773092805592</v>
       </c>
       <c r="D154" t="n">
-        <v>7.027984795704583</v>
+        <v>7.012049054895728</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3546748125306891</v>
+        <v>0.3068181332816757</v>
       </c>
       <c r="F154" t="n">
-        <v>7.027984795704583</v>
+        <v>7.012049054895728</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04216951710730075</v>
+        <v>0.04936419279973763</v>
       </c>
       <c r="H154" t="n">
-        <v>6.925726971338166</v>
+        <v>6.925145792618054</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4923903697517997</v>
+        <v>0.4516716366283464</v>
       </c>
       <c r="J154" t="n">
-        <v>6.925726971338166</v>
+        <v>6.925145792618054</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07449267129130321</v>
+        <v>0.07486010151043833</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.939625459068156</v>
+        <v>6.939040456803832</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4535162903471285</v>
+        <v>0.4541210904881393</v>
       </c>
       <c r="D155" t="n">
-        <v>7.041593891833243</v>
+        <v>7.02555331062433</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3329197596102461</v>
+        <v>0.2859641780986162</v>
       </c>
       <c r="F155" t="n">
-        <v>7.041593891833243</v>
+        <v>7.02555331062433</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03654786440541423</v>
+        <v>0.04322611541366802</v>
       </c>
       <c r="H155" t="n">
-        <v>6.939625459068156</v>
+        <v>6.939040456803832</v>
       </c>
       <c r="I155" t="n">
-        <v>0.4657948730818243</v>
+        <v>0.4228961313324318</v>
       </c>
       <c r="J155" t="n">
-        <v>6.939625459068156</v>
+        <v>6.939040456803832</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06598215184607298</v>
+        <v>0.06632791815577478</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.953523946798146</v>
+        <v>6.95293512098961</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4385141441528551</v>
+        <v>0.4391694691823178</v>
       </c>
       <c r="D156" t="n">
-        <v>7.055202987961904</v>
+        <v>7.039057566352932</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3115756506796299</v>
+        <v>0.2660392040466366</v>
       </c>
       <c r="F156" t="n">
-        <v>7.055202987961904</v>
+        <v>7.039057566352932</v>
       </c>
       <c r="G156" t="n">
-        <v>0.03140222048323931</v>
+        <v>0.03755925585233036</v>
       </c>
       <c r="H156" t="n">
-        <v>6.953523946798146</v>
+        <v>6.95293512098961</v>
       </c>
       <c r="I156" t="n">
-        <v>0.4398582136336007</v>
+        <v>0.3949404416026019</v>
       </c>
       <c r="J156" t="n">
-        <v>6.953523946798146</v>
+        <v>6.95293512098961</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0579438674308227</v>
+        <v>0.05827468407489941</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.967422434528135</v>
+        <v>6.966829785175388</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4217538074446393</v>
+        <v>0.4225247977301027</v>
       </c>
       <c r="D157" t="n">
-        <v>7.068812084090563</v>
+        <v>7.052561822081534</v>
       </c>
       <c r="E157" t="n">
-        <v>0.2907505539784879</v>
+        <v>0.2469886951220902</v>
       </c>
       <c r="F157" t="n">
-        <v>7.068812084090563</v>
+        <v>7.052561822081534</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02673294031575453</v>
+        <v>0.03235692626461156</v>
       </c>
       <c r="H157" t="n">
-        <v>6.967422434528135</v>
+        <v>6.966829785175388</v>
       </c>
       <c r="I157" t="n">
-        <v>0.4146571903128584</v>
+        <v>0.3679456278601337</v>
       </c>
       <c r="J157" t="n">
-        <v>6.967422434528135</v>
+        <v>6.966829785175388</v>
       </c>
       <c r="K157" t="n">
-        <v>0.05041641474589951</v>
+        <v>0.05072506749236785</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>6.981320922258126</v>
+        <v>6.980724449361167</v>
       </c>
       <c r="C158" t="n">
-        <v>0.4030459210808707</v>
+        <v>0.4038827283616768</v>
       </c>
       <c r="D158" t="n">
-        <v>7.082421180219224</v>
+        <v>7.066066077810136</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2704398567645455</v>
+        <v>0.2288000674695268</v>
       </c>
       <c r="F158" t="n">
-        <v>7.082421180219224</v>
+        <v>7.066066077810136</v>
       </c>
       <c r="G158" t="n">
-        <v>0.02254142557724227</v>
+        <v>0.02764090109856307</v>
       </c>
       <c r="H158" t="n">
-        <v>6.981320922258126</v>
+        <v>6.980724449361167</v>
       </c>
       <c r="I158" t="n">
-        <v>0.3902656883161766</v>
+        <v>0.3420446608993524</v>
       </c>
       <c r="J158" t="n">
-        <v>6.981320922258126</v>
+        <v>6.980724449361167</v>
       </c>
       <c r="K158" t="n">
-        <v>0.04349349610451472</v>
+        <v>0.04377718578578998</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.995219409988115</v>
+        <v>6.994619113546945</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3824788369422605</v>
+        <v>0.3834098079987852</v>
       </c>
       <c r="D159" t="n">
-        <v>7.096030276347884</v>
+        <v>7.079570333538738</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2506794841209948</v>
+        <v>0.2114760118858943</v>
       </c>
       <c r="F159" t="n">
-        <v>7.096030276347884</v>
+        <v>7.079570333538738</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01882750381941552</v>
+        <v>0.02337771548761344</v>
       </c>
       <c r="H159" t="n">
-        <v>6.995219409988115</v>
+        <v>6.994619113546945</v>
       </c>
       <c r="I159" t="n">
-        <v>0.3667242668085812</v>
+        <v>0.3173614183482156</v>
       </c>
       <c r="J159" t="n">
-        <v>6.995219409988115</v>
+        <v>6.994619113546945</v>
       </c>
       <c r="K159" t="n">
-        <v>0.03717262893395074</v>
+        <v>0.0374350257732342</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7.009117897718105</v>
+        <v>7.008513777732723</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3597768197488831</v>
+        <v>0.3608023869969518</v>
       </c>
       <c r="D160" t="n">
-        <v>7.109639372476544</v>
+        <v>7.09307458926734</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2316111123081982</v>
+        <v>0.1949149495435137</v>
       </c>
       <c r="F160" t="n">
-        <v>7.109639372476544</v>
+        <v>7.09307458926734</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01556401909172528</v>
+        <v>0.01959270206168171</v>
       </c>
       <c r="H160" t="n">
-        <v>7.009117897718105</v>
+        <v>7.008513777732723</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3440020123702572</v>
+        <v>0.2939244138927429</v>
       </c>
       <c r="J160" t="n">
-        <v>7.009117897718105</v>
+        <v>7.008513777732723</v>
       </c>
       <c r="K160" t="n">
-        <v>0.03149252564438369</v>
+        <v>0.0317283443444101</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7.023016385448095</v>
+        <v>7.022408441918502</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3354914784889526</v>
+        <v>0.3365741453700614</v>
       </c>
       <c r="D161" t="n">
-        <v>7.123248468605205</v>
+        <v>7.106578844995942</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2132458109054491</v>
+        <v>0.179156220133696</v>
       </c>
       <c r="F161" t="n">
-        <v>7.123248468605205</v>
+        <v>7.106578844995942</v>
       </c>
       <c r="G161" t="n">
-        <v>0.01272625108820276</v>
+        <v>0.01625469031542831</v>
       </c>
       <c r="H161" t="n">
-        <v>7.023016385448095</v>
+        <v>7.022408441918502</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3220781825251856</v>
+        <v>0.2717038894315486</v>
       </c>
       <c r="J161" t="n">
-        <v>7.023016385448095</v>
+        <v>7.022408441918502</v>
       </c>
       <c r="K161" t="n">
-        <v>0.02645831751193868</v>
+        <v>0.02666343828644324</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7.036914873178085</v>
+        <v>7.036303106104281</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3097294889491347</v>
+        <v>0.3108968861987347</v>
       </c>
       <c r="D162" t="n">
-        <v>7.136857564733864</v>
+        <v>7.120083100724544</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1956318741914536</v>
+        <v>0.1641576238388367</v>
       </c>
       <c r="F162" t="n">
-        <v>7.136857564733864</v>
+        <v>7.120083100724544</v>
       </c>
       <c r="G162" t="n">
-        <v>0.01030251971119415</v>
+        <v>0.01335421641844703</v>
       </c>
       <c r="H162" t="n">
-        <v>7.036914873178085</v>
+        <v>7.036303106104281</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3009072612237986</v>
+        <v>0.2507503632927459</v>
       </c>
       <c r="J162" t="n">
-        <v>7.036914873178085</v>
+        <v>7.036303106104281</v>
       </c>
       <c r="K162" t="n">
-        <v>0.02205765254780898</v>
+        <v>0.02223647503422592</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>7.050813360908075</v>
+        <v>7.05019777029006</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2829495100003039</v>
+        <v>0.2841488973340653</v>
       </c>
       <c r="D163" t="n">
-        <v>7.150466660862525</v>
+        <v>7.133587356453146</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1788672142510074</v>
+        <v>0.1499584520022477</v>
       </c>
       <c r="F163" t="n">
-        <v>7.150466660862525</v>
+        <v>7.133587356453146</v>
       </c>
       <c r="G163" t="n">
-        <v>0.008246873542527332</v>
+        <v>0.01084654827616693</v>
       </c>
       <c r="H163" t="n">
-        <v>7.050813360908075</v>
+        <v>7.05019777029006</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2804009737856618</v>
+        <v>0.2308909752690514</v>
       </c>
       <c r="J163" t="n">
-        <v>7.050813360908075</v>
+        <v>7.05019777029006</v>
       </c>
       <c r="K163" t="n">
-        <v>0.01826115853100137</v>
+        <v>0.01841890424372058</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7.064711848638064</v>
+        <v>7.064092434475838</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2556324125768374</v>
+        <v>0.2568555794455014</v>
       </c>
       <c r="D164" t="n">
-        <v>7.164075756991185</v>
+        <v>7.147091612181748</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1629621839390316</v>
+        <v>0.1364675086065293</v>
       </c>
       <c r="F164" t="n">
-        <v>7.164075756991185</v>
+        <v>7.147091612181748</v>
       </c>
       <c r="G164" t="n">
-        <v>0.006532864906120285</v>
+        <v>0.008725619873223489</v>
       </c>
       <c r="H164" t="n">
-        <v>7.064711848638064</v>
+        <v>7.064092434475838</v>
       </c>
       <c r="I164" t="n">
-        <v>0.2605626257545293</v>
+        <v>0.2121848086921386</v>
       </c>
       <c r="J164" t="n">
-        <v>7.064711848638064</v>
+        <v>7.064092434475838</v>
       </c>
       <c r="K164" t="n">
-        <v>0.01501844295608428</v>
+        <v>0.01515175359212741</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.078610336368054</v>
+        <v>7.077987098661616</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2282483520099999</v>
+        <v>0.2294702604915882</v>
       </c>
       <c r="D165" t="n">
-        <v>7.177684853119845</v>
+        <v>7.160595867910351</v>
       </c>
       <c r="E165" t="n">
-        <v>0.1479740087552184</v>
+        <v>0.1237769305050108</v>
       </c>
       <c r="F165" t="n">
-        <v>7.177684853119845</v>
+        <v>7.160595867910351</v>
       </c>
       <c r="G165" t="n">
-        <v>0.005123710689775876</v>
+        <v>0.006936838011912282</v>
       </c>
       <c r="H165" t="n">
-        <v>7.078610336368054</v>
+        <v>7.077987098661616</v>
       </c>
       <c r="I165" t="n">
-        <v>0.2413216670743409</v>
+        <v>0.1944400455600266</v>
       </c>
       <c r="J165" t="n">
-        <v>7.078610336368054</v>
+        <v>7.077987098661616</v>
       </c>
       <c r="K165" t="n">
-        <v>0.01231292670033008</v>
+        <v>0.01242449322838047</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7.092508824098044</v>
+        <v>7.091881762847395</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2012825017191006</v>
+        <v>0.2024912366828427</v>
       </c>
       <c r="D166" t="n">
-        <v>7.191293949248506</v>
+        <v>7.174100123638953</v>
       </c>
       <c r="E166" t="n">
-        <v>0.1338631429735187</v>
+        <v>0.1118285657846491</v>
       </c>
       <c r="F166" t="n">
-        <v>7.191293949248506</v>
+        <v>7.174100123638953</v>
       </c>
       <c r="G166" t="n">
-        <v>0.003980262233611595</v>
+        <v>0.00547062358311499</v>
       </c>
       <c r="H166" t="n">
-        <v>7.092508824098044</v>
+        <v>7.091881762847395</v>
       </c>
       <c r="I166" t="n">
-        <v>0.2226645269974136</v>
+        <v>0.1776667117466893</v>
       </c>
       <c r="J166" t="n">
-        <v>7.092508824098044</v>
+        <v>7.091881762847395</v>
       </c>
       <c r="K166" t="n">
-        <v>0.01004241351684758</v>
+        <v>0.01013945502224467</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7.106407311828034</v>
+        <v>7.105776427033174</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1753160255258359</v>
+        <v>0.1764574255459442</v>
       </c>
       <c r="D167" t="n">
-        <v>7.204903045377166</v>
+        <v>7.187604379367554</v>
       </c>
       <c r="E167" t="n">
-        <v>0.1207115739510434</v>
+        <v>0.1006320326850054</v>
       </c>
       <c r="F167" t="n">
-        <v>7.204903045377166</v>
+        <v>7.187604379367554</v>
       </c>
       <c r="G167" t="n">
-        <v>0.003053404975900504</v>
+        <v>0.004263317084263354</v>
       </c>
       <c r="H167" t="n">
-        <v>7.106407311828034</v>
+        <v>7.105776427033174</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2046404047923402</v>
+        <v>0.1617584796181774</v>
       </c>
       <c r="J167" t="n">
-        <v>7.106407311828034</v>
+        <v>7.105776427033174</v>
       </c>
       <c r="K167" t="n">
-        <v>0.008182716934420306</v>
+        <v>0.008256924637372478</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7.120305799558023</v>
+        <v>7.119671091218952</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1507291932790029</v>
+        <v>0.1518248790912994</v>
       </c>
       <c r="D168" t="n">
-        <v>7.218512141505826</v>
+        <v>7.201108635096156</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1084403633414072</v>
+        <v>0.09019180841593949</v>
       </c>
       <c r="F168" t="n">
-        <v>7.218512141505826</v>
+        <v>7.201108635096156</v>
       </c>
       <c r="G168" t="n">
-        <v>0.00232056251387236</v>
+        <v>0.003294525372621223</v>
       </c>
       <c r="H168" t="n">
-        <v>7.120305799558023</v>
+        <v>7.119671091218952</v>
       </c>
       <c r="I168" t="n">
-        <v>0.187213800719005</v>
+        <v>0.1466982870042624</v>
       </c>
       <c r="J168" t="n">
-        <v>7.120305799558023</v>
+        <v>7.119671091218952</v>
       </c>
       <c r="K168" t="n">
-        <v>0.006675417382873954</v>
+        <v>0.00673717802058674</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7.134204287288012</v>
+        <v>7.13356575540473</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1278654552862423</v>
+        <v>0.1288373583524446</v>
       </c>
       <c r="D169" t="n">
-        <v>7.232121237634487</v>
+        <v>7.214612890824758</v>
       </c>
       <c r="E169" t="n">
-        <v>0.09704798319937606</v>
+        <v>0.08048553958814028</v>
       </c>
       <c r="F169" t="n">
-        <v>7.232121237634487</v>
+        <v>7.214612890824758</v>
       </c>
       <c r="G169" t="n">
-        <v>0.001762073496148643</v>
+        <v>0.002512581247603101</v>
       </c>
       <c r="H169" t="n">
-        <v>7.134204287288012</v>
+        <v>7.13356575540473</v>
       </c>
       <c r="I169" t="n">
-        <v>0.170479928636317</v>
+        <v>0.1324520168134282</v>
       </c>
       <c r="J169" t="n">
-        <v>7.134204287288012</v>
+        <v>7.13356575540473</v>
       </c>
       <c r="K169" t="n">
-        <v>0.005442849111166056</v>
+        <v>0.005493863741296334</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>7.148102775018002</v>
+        <v>7.147460419590509</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1072796791720361</v>
+        <v>0.1081824150098214</v>
       </c>
       <c r="D170" t="n">
-        <v>7.245730333763147</v>
+        <v>7.22811714655336</v>
       </c>
       <c r="E170" t="n">
-        <v>0.08655457319631028</v>
+        <v>0.07153022308730116</v>
       </c>
       <c r="F170" t="n">
-        <v>7.245730333763147</v>
+        <v>7.22811714655336</v>
       </c>
       <c r="G170" t="n">
-        <v>0.001332827458663242</v>
+        <v>0.00190850746571182</v>
       </c>
       <c r="H170" t="n">
-        <v>7.148102775018002</v>
+        <v>7.147460419590509</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1544794912357278</v>
+        <v>0.1190156339990702</v>
       </c>
       <c r="J170" t="n">
-        <v>7.148102775018002</v>
+        <v>7.147460419590509</v>
       </c>
       <c r="K170" t="n">
-        <v>0.004458165907503125</v>
+        <v>0.004497939562030269</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>7.162001262747992</v>
+        <v>7.161355083776288</v>
       </c>
       <c r="C171" t="n">
-        <v>0.08884162320571196</v>
+        <v>0.08967016986327148</v>
       </c>
       <c r="D171" t="n">
-        <v>7.259339429891806</v>
+        <v>7.241621402281962</v>
       </c>
       <c r="E171" t="n">
-        <v>0.07684778635458006</v>
+        <v>0.06325208050336562</v>
       </c>
       <c r="F171" t="n">
-        <v>7.259339429891806</v>
+        <v>7.241621402281962</v>
       </c>
       <c r="G171" t="n">
-        <v>0.001013298124089453</v>
+        <v>0.001449301037653</v>
       </c>
       <c r="H171" t="n">
-        <v>7.162001262747992</v>
+        <v>7.161355083776288</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1392114360917445</v>
+        <v>0.1063732239872828</v>
       </c>
       <c r="J171" t="n">
-        <v>7.162001262747992</v>
+        <v>7.161355083776288</v>
       </c>
       <c r="K171" t="n">
-        <v>0.003664267209057829</v>
+        <v>0.003697796128712523</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>7.175899750477982</v>
+        <v>7.175249747962066</v>
       </c>
       <c r="C172" t="n">
-        <v>0.07304229231718083</v>
+        <v>0.07371017953635002</v>
       </c>
       <c r="D172" t="n">
-        <v>7.272948526020468</v>
+        <v>7.255125658010564</v>
       </c>
       <c r="E172" t="n">
-        <v>0.06796814464585005</v>
+        <v>0.05571390443589761</v>
       </c>
       <c r="F172" t="n">
-        <v>7.272948526020468</v>
+        <v>7.255125658010564</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0007801487385737551</v>
+        <v>0.001104578881375633</v>
       </c>
       <c r="H172" t="n">
-        <v>7.175899750477982</v>
+        <v>7.175249747962066</v>
       </c>
       <c r="I172" t="n">
-        <v>0.124845982994253</v>
+        <v>0.09456071751408628</v>
       </c>
       <c r="J172" t="n">
-        <v>7.175899750477982</v>
+        <v>7.175249747962066</v>
       </c>
       <c r="K172" t="n">
-        <v>0.003024617524644435</v>
+        <v>0.003051321956425138</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7.189798238207972</v>
+        <v>7.189144412147844</v>
       </c>
       <c r="C173" t="n">
-        <v>0.05964869449329113</v>
+        <v>0.06023795190783969</v>
       </c>
       <c r="D173" t="n">
-        <v>7.286557622149127</v>
+        <v>7.268629913739166</v>
       </c>
       <c r="E173" t="n">
-        <v>0.05986337278238558</v>
+        <v>0.04882715744583415</v>
       </c>
       <c r="F173" t="n">
-        <v>7.286557622149127</v>
+        <v>7.268629913739166</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0006067454649123932</v>
+        <v>0.0008492520054549347</v>
       </c>
       <c r="H173" t="n">
-        <v>7.189798238207972</v>
+        <v>7.189144412147844</v>
       </c>
       <c r="I173" t="n">
-        <v>0.111277556177516</v>
+        <v>0.08354413753694616</v>
       </c>
       <c r="J173" t="n">
-        <v>7.189798238207972</v>
+        <v>7.189144412147844</v>
       </c>
       <c r="K173" t="n">
-        <v>0.002506198187011597</v>
+        <v>0.002528176345466069</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7.203696725937961</v>
+        <v>7.203039076333623</v>
       </c>
       <c r="C174" t="n">
-        <v>0.04860572717101116</v>
+        <v>0.04904182878557885</v>
       </c>
       <c r="D174" t="n">
-        <v>7.300166718277787</v>
+        <v>7.282134169467768</v>
       </c>
       <c r="E174" t="n">
-        <v>0.05246439815081095</v>
+        <v>0.04258338161847159</v>
       </c>
       <c r="F174" t="n">
-        <v>7.300166718277787</v>
+        <v>7.282134169467768</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0004762488072505856</v>
+        <v>0.0006558754401738974</v>
       </c>
       <c r="H174" t="n">
-        <v>7.203696725937961</v>
+        <v>7.203039076333623</v>
       </c>
       <c r="I174" t="n">
-        <v>0.09868500411245464</v>
+        <v>0.07338230292292953</v>
       </c>
       <c r="J174" t="n">
-        <v>7.203696725937961</v>
+        <v>7.203039076333623</v>
       </c>
       <c r="K174" t="n">
-        <v>0.002096541517718346</v>
+        <v>0.00211174740538423</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>7.217595213667951</v>
+        <v>7.216933740519401</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03994582970004593</v>
+        <v>0.04031322896212688</v>
       </c>
       <c r="D175" t="n">
-        <v>7.313775814406448</v>
+        <v>7.29563842519637</v>
       </c>
       <c r="E175" t="n">
-        <v>0.04576562261333169</v>
+        <v>0.03697838127970367</v>
       </c>
       <c r="F175" t="n">
-        <v>7.313775814406448</v>
+        <v>7.29563842519637</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0003795749110494396</v>
+        <v>0.0005143921380946717</v>
       </c>
       <c r="H175" t="n">
-        <v>7.217595213667951</v>
+        <v>7.216933740519401</v>
       </c>
       <c r="I175" t="n">
-        <v>0.08697672914637154</v>
+        <v>0.06400486681798294</v>
       </c>
       <c r="J175" t="n">
-        <v>7.217595213667951</v>
+        <v>7.216933740519401</v>
       </c>
       <c r="K175" t="n">
-        <v>0.001795900202228856</v>
+        <v>0.001808912011219384</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7.231493701397941</v>
+        <v>7.230828404705179</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03312505789606362</v>
+        <v>0.03342944304219744</v>
       </c>
       <c r="D176" t="n">
-        <v>7.327384910535108</v>
+        <v>7.309142680924972</v>
       </c>
       <c r="E176" t="n">
-        <v>0.03972072808564293</v>
+        <v>0.03194472935413734</v>
       </c>
       <c r="F176" t="n">
-        <v>7.327384910535108</v>
+        <v>7.309142680924972</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0003134295403168594</v>
+        <v>0.0004098727597015476</v>
       </c>
       <c r="H176" t="n">
-        <v>7.231493701397941</v>
+        <v>7.230828404705179</v>
       </c>
       <c r="I176" t="n">
-        <v>0.07619767735947876</v>
+        <v>0.05547639757919385</v>
       </c>
       <c r="J176" t="n">
-        <v>7.231493701397941</v>
+        <v>7.230828404705179</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001538147955978224</v>
+        <v>0.001549636718757329</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7.245392189127931</v>
+        <v>7.244723068890957</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0281622892885475</v>
+        <v>0.0283598913541448</v>
       </c>
       <c r="D177" t="n">
-        <v>7.340994006663768</v>
+        <v>7.322646936653574</v>
       </c>
       <c r="E177" t="n">
-        <v>0.03427016804065561</v>
+        <v>0.02746177430006474</v>
       </c>
       <c r="F177" t="n">
-        <v>7.340994006663768</v>
+        <v>7.322646936653574</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0002855769136739056</v>
+        <v>0.0003329569300811509</v>
       </c>
       <c r="H177" t="n">
-        <v>7.245392189127931</v>
+        <v>7.244723068890957</v>
       </c>
       <c r="I177" t="n">
-        <v>0.0663421146198863</v>
+        <v>0.04770778742148678</v>
       </c>
       <c r="J177" t="n">
-        <v>7.245392189127931</v>
+        <v>7.244723068890957</v>
       </c>
       <c r="K177" t="n">
-        <v>0.00131901061694938</v>
+        <v>0.001328647299782806</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7.259290676857921</v>
+        <v>7.258617733076736</v>
       </c>
       <c r="C178" t="n">
-        <v>0.02452071931202663</v>
+        <v>0.02467689887788862</v>
       </c>
       <c r="D178" t="n">
-        <v>7.354603102792428</v>
+        <v>7.336151192382176</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0294195225417112</v>
+        <v>0.02348379796953749</v>
       </c>
       <c r="F178" t="n">
-        <v>7.354603102792428</v>
+        <v>7.336151192382176</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002942448857462529</v>
       </c>
       <c r="H178" t="n">
-        <v>7.259290676857921</v>
+        <v>7.258617733076736</v>
       </c>
       <c r="I178" t="n">
-        <v>0.0573612808996438</v>
+        <v>0.04073022328290266</v>
       </c>
       <c r="J178" t="n">
-        <v>7.259290676857921</v>
+        <v>7.258617733076736</v>
       </c>
       <c r="K178" t="n">
-        <v>0.001150084079842156</v>
+        <v>0.001156726699252768</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>7.27318916458791</v>
+        <v>7.272512397262515</v>
       </c>
       <c r="C179" t="n">
-        <v>0.02193440349187442</v>
+        <v>0.02202974837402021</v>
       </c>
       <c r="D179" t="n">
-        <v>7.368212198921089</v>
+        <v>7.349655448110777</v>
       </c>
       <c r="E179" t="n">
-        <v>0.02509615829611838</v>
+        <v>0.01996881520756155</v>
       </c>
       <c r="F179" t="n">
-        <v>7.368212198921089</v>
+        <v>7.349655448110777</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H179" t="n">
-        <v>7.27318916458791</v>
+        <v>7.272512397262515</v>
       </c>
       <c r="I179" t="n">
-        <v>0.04924715172351576</v>
+        <v>0.03447436243677685</v>
       </c>
       <c r="J179" t="n">
-        <v>7.27318916458791</v>
+        <v>7.272512397262515</v>
       </c>
       <c r="K179" t="n">
-        <v>0.001019017270851558</v>
+        <v>0.001025077105203766</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>7.2870876523179</v>
+        <v>7.286407061448293</v>
       </c>
       <c r="C180" t="n">
-        <v>0.02013628369090637</v>
+        <v>0.02021223273825368</v>
       </c>
       <c r="D180" t="n">
-        <v>7.381821295049749</v>
+        <v>7.363159703839379</v>
       </c>
       <c r="E180" t="n">
-        <v>0.02125735860877291</v>
+        <v>0.01688807407483842</v>
       </c>
       <c r="F180" t="n">
-        <v>7.381821295049749</v>
+        <v>7.363159703839379</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H180" t="n">
-        <v>7.2870876523179</v>
+        <v>7.286407061448293</v>
       </c>
       <c r="I180" t="n">
-        <v>0.0419538937744448</v>
+        <v>0.0289199577056784</v>
       </c>
       <c r="J180" t="n">
-        <v>7.2870876523179</v>
+        <v>7.286407061448293</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0009012738671239402</v>
+        <v>0.0009067380993106065</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>7.30098614004789</v>
+        <v>7.300301725634071</v>
       </c>
       <c r="C181" t="n">
-        <v>0.01877298767322401</v>
+        <v>0.01883580462570294</v>
       </c>
       <c r="D181" t="n">
-        <v>7.39543039117841</v>
+        <v>7.376663959567981</v>
       </c>
       <c r="E181" t="n">
-        <v>0.01790100911597077</v>
+        <v>0.01419639243349011</v>
       </c>
       <c r="F181" t="n">
-        <v>7.39543039117841</v>
+        <v>7.376663959567981</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H181" t="n">
-        <v>7.30098614004789</v>
+        <v>7.300301725634071</v>
       </c>
       <c r="I181" t="n">
-        <v>0.03544174814549069</v>
+        <v>0.02402969871246095</v>
       </c>
       <c r="J181" t="n">
-        <v>7.30098614004789</v>
+        <v>7.300301725634071</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0007968355370893133</v>
+        <v>0.0008017040924023819</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>7.31488462777788</v>
+        <v>7.31419638981985</v>
       </c>
       <c r="C182" t="n">
-        <v>0.01767265329356915</v>
+        <v>0.01772435630863611</v>
       </c>
       <c r="D182" t="n">
-        <v>7.409039487307069</v>
+        <v>7.390168215296583</v>
       </c>
       <c r="E182" t="n">
-        <v>0.01494132283283677</v>
+        <v>0.01184502789600067</v>
       </c>
       <c r="F182" t="n">
-        <v>7.409039487307069</v>
+        <v>7.390168215296583</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H182" t="n">
-        <v>7.31488462777788</v>
+        <v>7.31419638981985</v>
       </c>
       <c r="I182" t="n">
-        <v>0.02968029868523005</v>
+        <v>0.01974800001341681</v>
       </c>
       <c r="J182" t="n">
-        <v>7.31488462777788</v>
+        <v>7.31419638981985</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0007053986632778301</v>
+        <v>0.0007096838993227247</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>7.32878311550787</v>
+        <v>7.328091054005629</v>
       </c>
       <c r="C183" t="n">
-        <v>0.01662745953628303</v>
+        <v>0.01667954862073884</v>
       </c>
       <c r="D183" t="n">
-        <v>7.42264858343573</v>
+        <v>7.403672471025185</v>
       </c>
       <c r="E183" t="n">
-        <v>0.012385951110759</v>
+        <v>0.009818361034925283</v>
       </c>
       <c r="F183" t="n">
-        <v>7.42264858343573</v>
+        <v>7.403672471025185</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H183" t="n">
-        <v>7.32878311550787</v>
+        <v>7.328091054005629</v>
       </c>
       <c r="I183" t="n">
-        <v>0.02460739409184174</v>
+        <v>0.01605297106070568</v>
       </c>
       <c r="J183" t="n">
-        <v>7.32878311550787</v>
+        <v>7.328091054005629</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0006263992859253903</v>
+        <v>0.0006301248201341118</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>7.342681603237859</v>
+        <v>7.341985718191408</v>
       </c>
       <c r="C184" t="n">
-        <v>0.01552732617330958</v>
+        <v>0.01558645279087163</v>
       </c>
       <c r="D184" t="n">
-        <v>7.43625767956439</v>
+        <v>7.417176726753787</v>
       </c>
       <c r="E184" t="n">
-        <v>0.010179081505339</v>
+        <v>0.008067614045952262</v>
       </c>
       <c r="F184" t="n">
-        <v>7.43625767956439</v>
+        <v>7.417176726753787</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H184" t="n">
-        <v>7.342681603237859</v>
+        <v>7.341985718191408</v>
       </c>
       <c r="I184" t="n">
-        <v>0.02019515275345037</v>
+        <v>0.01287892343929332</v>
       </c>
       <c r="J184" t="n">
-        <v>7.342681603237859</v>
+        <v>7.341985718191408</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0005590548242867918</v>
+        <v>0.0005622537390538935</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>7.356580090967849</v>
+        <v>7.355880382377186</v>
       </c>
       <c r="C185" t="n">
-        <v>0.01430708619118087</v>
+        <v>0.01437132177447437</v>
       </c>
       <c r="D185" t="n">
-        <v>7.44986677569305</v>
+        <v>7.430680982482389</v>
       </c>
       <c r="E185" t="n">
-        <v>0.008273938401242775</v>
+        <v>0.006565977069607314</v>
       </c>
       <c r="F185" t="n">
-        <v>7.44986677569305</v>
+        <v>7.430680982482389</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H185" t="n">
-        <v>7.356580090967849</v>
+        <v>7.355880382377186</v>
       </c>
       <c r="I185" t="n">
-        <v>0.0163793010773903</v>
+        <v>0.01020414879044905</v>
       </c>
       <c r="J185" t="n">
-        <v>7.356580090967849</v>
+        <v>7.355880382377186</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0005024159819579983</v>
+        <v>0.0005051286531388967</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>7.370478578697838</v>
+        <v>7.369775046562964</v>
       </c>
       <c r="C186" t="n">
-        <v>0.01296627760756622</v>
+        <v>0.01303553784516096</v>
       </c>
       <c r="D186" t="n">
-        <v>7.463475871821711</v>
+        <v>7.444185238210991</v>
       </c>
       <c r="E186" t="n">
-        <v>0.006685223041388987</v>
+        <v>0.005305697081479445</v>
       </c>
       <c r="F186" t="n">
-        <v>7.463475871821711</v>
+        <v>7.444185238210991</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H186" t="n">
-        <v>7.370478578697838</v>
+        <v>7.369775046562964</v>
       </c>
       <c r="I186" t="n">
-        <v>0.0131334191449808</v>
+        <v>0.007968583379982101</v>
       </c>
       <c r="J186" t="n">
-        <v>7.370478578697838</v>
+        <v>7.369775046562964</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0004554226950182687</v>
+        <v>0.000457694472865862</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>7.384377066427828</v>
+        <v>7.383669710748743</v>
       </c>
       <c r="C187" t="n">
-        <v>0.01150584469388184</v>
+        <v>0.01158219538554084</v>
       </c>
       <c r="D187" t="n">
-        <v>7.47708496795037</v>
+        <v>7.457689493939593</v>
       </c>
       <c r="E187" t="n">
-        <v>0.005341248989086105</v>
+        <v>0.004239565128828104</v>
       </c>
       <c r="F187" t="n">
-        <v>7.47708496795037</v>
+        <v>7.457689493939593</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H187" t="n">
-        <v>7.384377066427828</v>
+        <v>7.383669710748743</v>
       </c>
       <c r="I187" t="n">
-        <v>0.01039019330520533</v>
+        <v>0.006129067194195654</v>
       </c>
       <c r="J187" t="n">
-        <v>7.384377066427828</v>
+        <v>7.383669710748743</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0004169589059987979</v>
+        <v>0.0004188378443677554</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>7.398275554157818</v>
+        <v>7.397564374934522</v>
       </c>
       <c r="C188" t="n">
-        <v>0.009991072915103356</v>
+        <v>0.010069148980137</v>
       </c>
       <c r="D188" t="n">
-        <v>7.490694064079031</v>
+        <v>7.471193749668195</v>
       </c>
       <c r="E188" t="n">
-        <v>0.004226869789874035</v>
+        <v>0.003350459530123311</v>
       </c>
       <c r="F188" t="n">
-        <v>7.490694064079031</v>
+        <v>7.471193749668195</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H188" t="n">
-        <v>7.398275554157818</v>
+        <v>7.397564374934522</v>
       </c>
       <c r="I188" t="n">
-        <v>0.008116074159578275</v>
+        <v>0.004644181953532514</v>
       </c>
       <c r="J188" t="n">
-        <v>7.398275554157818</v>
+        <v>7.397564374934522</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0003859021540761363</v>
+        <v>0.0003874369402934731</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>7.412174041887807</v>
+        <v>7.4114590391203</v>
       </c>
       <c r="C189" t="n">
-        <v>0.00847487661382869</v>
+        <v>0.008551280202360163</v>
       </c>
       <c r="D189" t="n">
-        <v>7.504303160207691</v>
+        <v>7.484698005396798</v>
       </c>
       <c r="E189" t="n">
-        <v>0.003323492433412546</v>
+        <v>0.002637629156482826</v>
       </c>
       <c r="F189" t="n">
-        <v>7.504303160207691</v>
+        <v>7.484698005396798</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H189" t="n">
-        <v>7.412174041887807</v>
+        <v>7.4114590391203</v>
       </c>
       <c r="I189" t="n">
-        <v>0.006245471645287162</v>
+        <v>0.003456040362525057</v>
       </c>
       <c r="J189" t="n">
-        <v>7.412174041887807</v>
+        <v>7.4114590391203</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0003611652822748584</v>
+        <v>0.0003624034726275855</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7.426072529617798</v>
+        <v>7.425353703306078</v>
       </c>
       <c r="C190" t="n">
-        <v>0.007017173141600339</v>
+        <v>0.007090721347516014</v>
       </c>
       <c r="D190" t="n">
-        <v>7.517912256336352</v>
+        <v>7.4982022611254</v>
       </c>
       <c r="E190" t="n">
-        <v>0.002595969413562384</v>
+        <v>0.002050801214131771</v>
       </c>
       <c r="F190" t="n">
-        <v>7.517912256336352</v>
+        <v>7.4982022611254</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H190" t="n">
-        <v>7.426072529617798</v>
+        <v>7.425353703306078</v>
       </c>
       <c r="I190" t="n">
-        <v>0.004740758030614466</v>
+        <v>0.002547893463221375</v>
       </c>
       <c r="J190" t="n">
-        <v>7.426072529617798</v>
+        <v>7.425353703306078</v>
       </c>
       <c r="K190" t="n">
-        <v>0.000341728823377193</v>
+        <v>0.0003427154429947552</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>7.439971017347787</v>
+        <v>7.439248367491857</v>
       </c>
       <c r="C191" t="n">
-        <v>0.005658987963597963</v>
+        <v>0.005727123377206449</v>
       </c>
       <c r="D191" t="n">
-        <v>7.531521352465012</v>
+        <v>7.511706516854002</v>
       </c>
       <c r="E191" t="n">
-        <v>0.002018934100943054</v>
+        <v>0.001586714244046174</v>
       </c>
       <c r="F191" t="n">
-        <v>7.531521352465012</v>
+        <v>7.511706516854002</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H191" t="n">
-        <v>7.439971017347787</v>
+        <v>7.439248367491857</v>
       </c>
       <c r="I191" t="n">
-        <v>0.003537411251813697</v>
+        <v>0.001867725833117557</v>
       </c>
       <c r="J191" t="n">
-        <v>7.439971017347787</v>
+        <v>7.439248367491857</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0003266947261254167</v>
+        <v>0.0003274402496882658</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>7.453869505077777</v>
+        <v>7.453143031677635</v>
       </c>
       <c r="C192" t="n">
-        <v>0.004462987535446526</v>
+        <v>0.004521238413771951</v>
       </c>
       <c r="D192" t="n">
-        <v>7.545130448593672</v>
+        <v>7.525210772582604</v>
       </c>
       <c r="E192" t="n">
-        <v>0.001573589543627036</v>
+        <v>0.001230573071967013</v>
       </c>
       <c r="F192" t="n">
-        <v>7.545130448593672</v>
+        <v>7.525210772582604</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H192" t="n">
-        <v>7.453869505077777</v>
+        <v>7.453143031677635</v>
       </c>
       <c r="I192" t="n">
-        <v>0.002631795567604818</v>
+        <v>0.001353531187602333</v>
       </c>
       <c r="J192" t="n">
-        <v>7.453869505077777</v>
+        <v>7.453143031677635</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0003152807354332924</v>
+        <v>0.000315748645043538</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7.467767992807767</v>
+        <v>7.467037695863413</v>
       </c>
       <c r="C193" t="n">
-        <v>0.003421361378934711</v>
+        <v>0.003473435556177386</v>
       </c>
       <c r="D193" t="n">
-        <v>7.558739544722332</v>
+        <v>7.538715028311206</v>
       </c>
       <c r="E193" t="n">
-        <v>0.001234673306476624</v>
+        <v>0.0009525692817017568</v>
       </c>
       <c r="F193" t="n">
-        <v>7.558739544722332</v>
+        <v>7.538715028311206</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H193" t="n">
-        <v>7.467767992807767</v>
+        <v>7.467037695863413</v>
       </c>
       <c r="I193" t="n">
-        <v>0.001948714576221747</v>
+        <v>0.0009719773459759481</v>
       </c>
       <c r="J193" t="n">
-        <v>7.467767992807767</v>
+        <v>7.467037695863413</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7.481666480537756</v>
+        <v>7.480932360049191</v>
       </c>
       <c r="C194" t="n">
-        <v>0.002560384635459992</v>
+        <v>0.00259970801690742</v>
       </c>
       <c r="D194" t="n">
-        <v>7.572348640850993</v>
+        <v>7.552219284039808</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0009649678603997711</v>
+        <v>0.0007359105839087345</v>
       </c>
       <c r="F194" t="n">
-        <v>7.572348640850993</v>
+        <v>7.552219284039808</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H194" t="n">
-        <v>7.481666480537756</v>
+        <v>7.480932360049191</v>
       </c>
       <c r="I194" t="n">
-        <v>0.001431609094861522</v>
+        <v>0.0006915256212087733</v>
       </c>
       <c r="J194" t="n">
-        <v>7.481666480537756</v>
+        <v>7.480932360049191</v>
       </c>
       <c r="K194" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>7.495564968267747</v>
+        <v>7.49482702423497</v>
       </c>
       <c r="C195" t="n">
-        <v>0.001868423952710624</v>
+        <v>0.00190183986019047</v>
       </c>
       <c r="D195" t="n">
-        <v>7.585957736979653</v>
+        <v>7.56572353976841</v>
       </c>
       <c r="E195" t="n">
-        <v>0.0007601961411599914</v>
+        <v>0.0005718786105012437</v>
       </c>
       <c r="F195" t="n">
-        <v>7.585957736979653</v>
+        <v>7.56572353976841</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H195" t="n">
-        <v>7.495564968267747</v>
+        <v>7.49482702423497</v>
       </c>
       <c r="I195" t="n">
-        <v>0.00104515654382831</v>
+        <v>0.0005132144744708149</v>
       </c>
       <c r="J195" t="n">
-        <v>7.495564968267747</v>
+        <v>7.49482702423497</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7.509463455997736</v>
+        <v>7.508721688420749</v>
       </c>
       <c r="C196" t="n">
-        <v>0.001321123734061581</v>
+        <v>0.001345868329614273</v>
       </c>
       <c r="D196" t="n">
-        <v>7.599566833108312</v>
+        <v>7.579227795497012</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0006236271443267755</v>
+        <v>0.0004652241573923847</v>
       </c>
       <c r="F196" t="n">
-        <v>7.599566833108312</v>
+        <v>7.579227795497012</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H196" t="n">
-        <v>7.509463455997736</v>
+        <v>7.508721688420749</v>
       </c>
       <c r="I196" t="n">
-        <v>0.0007753639991728776</v>
+        <v>0.0003907239813195584</v>
       </c>
       <c r="J196" t="n">
-        <v>7.509463455997736</v>
+        <v>7.508721688420749</v>
       </c>
       <c r="K196" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7.523361943727726</v>
+        <v>7.522616352606527</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0009193884767520706</v>
+        <v>0.0009379160439289485</v>
       </c>
       <c r="D197" t="n">
-        <v>7.613175929236974</v>
+        <v>7.592732051225614</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0005307476832925149</v>
+        <v>0.0003894638274715147</v>
       </c>
       <c r="F197" t="n">
-        <v>7.613175929236974</v>
+        <v>7.592732051225614</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H197" t="n">
-        <v>7.523361943727726</v>
+        <v>7.522616352606527</v>
       </c>
       <c r="I197" t="n">
-        <v>0.0005958711157253108</v>
+        <v>0.0003384684107531437</v>
       </c>
       <c r="J197" t="n">
-        <v>7.523361943727726</v>
+        <v>7.522616352606527</v>
       </c>
       <c r="K197" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7.537260431457716</v>
+        <v>7.536511016792305</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0006175936582372218</v>
+        <v>0.0006323713419891662</v>
       </c>
       <c r="D198" t="n">
-        <v>7.626785025365633</v>
+        <v>7.606236306954216</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0004612536194300335</v>
+        <v>0.0003339528063236089</v>
       </c>
       <c r="F198" t="n">
-        <v>7.626785025365633</v>
+        <v>7.606236306954216</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H198" t="n">
-        <v>7.537260431457716</v>
+        <v>7.536511016792305</v>
       </c>
       <c r="I198" t="n">
-        <v>0.0004801781348723424</v>
+        <v>0.0003020399340288463</v>
       </c>
       <c r="J198" t="n">
-        <v>7.537260431457716</v>
+        <v>7.536511016792305</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7.551158919187705</v>
+        <v>7.550405680978084</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0004067101919678993</v>
+        <v>0.0004156457311701086</v>
       </c>
       <c r="D199" t="n">
-        <v>7.640394121494294</v>
+        <v>7.619740562682818</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0004119563185465774</v>
+        <v>0.0002949688044379676</v>
       </c>
       <c r="F199" t="n">
-        <v>7.640394121494294</v>
+        <v>7.619740562682818</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H199" t="n">
-        <v>7.551158919187705</v>
+        <v>7.550405680978084</v>
       </c>
       <c r="I199" t="n">
-        <v>0.0004279287621152163</v>
+        <v>0.0002769831548202751</v>
       </c>
       <c r="J199" t="n">
-        <v>7.551158919187705</v>
+        <v>7.550405680978084</v>
       </c>
       <c r="K199" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7.565057406917695</v>
+        <v>7.564300345163863</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0002608499744311549</v>
+        <v>0.0002676607493533614</v>
       </c>
       <c r="D200" t="n">
-        <v>7.654003217622954</v>
+        <v>7.63324481841142</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0003760108436659355</v>
+        <v>0.0002670876798139192</v>
       </c>
       <c r="F200" t="n">
-        <v>7.654003217622954</v>
+        <v>7.63324481841142</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H200" t="n">
-        <v>7.565057406917695</v>
+        <v>7.564300345163863</v>
       </c>
       <c r="I200" t="n">
-        <v>0.0003915827698273069</v>
+        <v>0.0002657892771101448</v>
       </c>
       <c r="J200" t="n">
-        <v>7.565057406917695</v>
+        <v>7.564300345163863</v>
       </c>
       <c r="K200" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
     <row r="201">
@@ -7455,34 +7455,34 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7.578955894647684</v>
+        <v>7.578195009349641</v>
       </c>
       <c r="C201" t="n">
         <v>0.0001651418266899786</v>
       </c>
       <c r="D201" t="n">
-        <v>7.667612313751614</v>
+        <v>7.646749074140022</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0003503481937408967</v>
+        <v>0.0002476214668579208</v>
       </c>
       <c r="F201" t="n">
-        <v>7.667612313751614</v>
+        <v>7.646749074140022</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0002733239182988772</v>
+        <v>0.0002733239182988838</v>
       </c>
       <c r="H201" t="n">
-        <v>7.578955894647684</v>
+        <v>7.578195009349641</v>
       </c>
       <c r="I201" t="n">
-        <v>0.0003659807202707948</v>
+        <v>0.0002657892771101448</v>
       </c>
       <c r="J201" t="n">
-        <v>7.578955894647684</v>
+        <v>7.578195009349641</v>
       </c>
       <c r="K201" t="n">
-        <v>0.0003072552925733843</v>
+        <v>0.0003072552925733844</v>
       </c>
     </row>
   </sheetData>
